--- a/nova/projects/equilibrium/work_plan.xlsx
+++ b/nova/projects/equilibrium/work_plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcintos\Code\nova\nova\projects\equilibrium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\mcintos\Code\nova\nova\projects\equilibrium\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>task</t>
   </si>
@@ -90,6 +90,51 @@
   </si>
   <si>
     <t>tfopp</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>plasma state estimation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">develop Kalman filters for plasma </t>
+  </si>
+  <si>
+    <t>linear reconstruction</t>
+  </si>
+  <si>
+    <t>non-linear reconstruction</t>
+  </si>
+  <si>
+    <t>transfer existing codes to IMAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check exicution speed </t>
+  </si>
+  <si>
+    <t>code improvement (GPU / refactoring)</t>
+  </si>
+  <si>
+    <t>Define minimization objective(s) (free-energy)</t>
+  </si>
+  <si>
+    <t>Develop generic paramitrizations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deploy 2D </t>
+  </si>
+  <si>
+    <t>Make real-time / feedback paramitrizations to linear model</t>
+  </si>
+  <si>
+    <t>implement full state-aware model</t>
+  </si>
+  <si>
+    <t>Deploy 3D - ensemble Kalman filter</t>
+  </si>
+  <si>
+    <t>diagnostics</t>
   </si>
 </sst>
 </file>
@@ -417,168 +462,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:I20"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="34.08984375" customWidth="1"/>
-    <col min="4" max="4" width="46.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
     <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C3" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C6" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C9" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -587,7 +646,10 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -596,7 +658,10 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -605,7 +670,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -614,7 +679,10 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -623,7 +691,10 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -632,7 +703,10 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -641,6 +715,57 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/nova/projects/equilibrium/work_plan.xlsx
+++ b/nova/projects/equilibrium/work_plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="134">
   <si>
     <t>task</t>
   </si>
@@ -44,9 +44,6 @@
     <t>check commissioning limits for coils and power supplies</t>
   </si>
   <si>
-    <t>prerequisite</t>
-  </si>
-  <si>
     <t>wm</t>
   </si>
   <si>
@@ -92,49 +89,343 @@
     <t>tfopp</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>plasma state estimation</t>
   </si>
   <si>
-    <t xml:space="preserve">develop Kalman filters for plasma </t>
-  </si>
-  <si>
     <t>linear reconstruction</t>
   </si>
   <si>
     <t>non-linear reconstruction</t>
   </si>
   <si>
-    <t>transfer existing codes to IMAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check exicution speed </t>
-  </si>
-  <si>
     <t>code improvement (GPU / refactoring)</t>
   </si>
   <si>
-    <t>Define minimization objective(s) (free-energy)</t>
-  </si>
-  <si>
-    <t>Develop generic paramitrizations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deploy 2D </t>
-  </si>
-  <si>
-    <t>Make real-time / feedback paramitrizations to linear model</t>
-  </si>
-  <si>
-    <t>implement full state-aware model</t>
-  </si>
-  <si>
-    <t>Deploy 3D - ensemble Kalman filter</t>
-  </si>
-  <si>
     <t>diagnostics</t>
+  </si>
+  <si>
+    <t>assembly</t>
+  </si>
+  <si>
+    <t>first plasma</t>
+  </si>
+  <si>
+    <t>pre full power operation 1</t>
+  </si>
+  <si>
+    <t>pre full power operation 2</t>
+  </si>
+  <si>
+    <t>full power operation 1</t>
+  </si>
+  <si>
+    <t>full power operation 2</t>
+  </si>
+  <si>
+    <t>full power operation 3</t>
+  </si>
+  <si>
+    <t>PFP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>PFPO1</t>
+  </si>
+  <si>
+    <t>PFPO2</t>
+  </si>
+  <si>
+    <t>FPO1</t>
+  </si>
+  <si>
+    <t>FPO2</t>
+  </si>
+  <si>
+    <t>FPO3</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>responsible</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>SCOD</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>PFP,tff</t>
+  </si>
+  <si>
+    <t>check field symetry + build 3D field maps</t>
+  </si>
+  <si>
+    <t>map3D</t>
+  </si>
+  <si>
+    <t>magnetics-only inferance (Bayesian)</t>
+  </si>
+  <si>
+    <t>commission MSE diagnostic</t>
+  </si>
+  <si>
+    <t>commission magnetics-only diagnostics</t>
+  </si>
+  <si>
+    <t>mag-only</t>
+  </si>
+  <si>
+    <t>mag-bay</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>mesure open-loop vessel response</t>
+  </si>
+  <si>
+    <t>ferritic model</t>
+  </si>
+  <si>
+    <t>diag</t>
+  </si>
+  <si>
+    <t>calibbrate 3D wall model</t>
+  </si>
+  <si>
+    <t>calibrate 2D wall model</t>
+  </si>
+  <si>
+    <t>wm-ol</t>
+  </si>
+  <si>
+    <t>mag-only,tfopp</t>
+  </si>
+  <si>
+    <t>IVD</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>DIS,SCOD</t>
+  </si>
+  <si>
+    <t>develop dipole representation (fast, far-field)</t>
+  </si>
+  <si>
+    <t>defeature ferritic insert geometry - store in IMAS</t>
+  </si>
+  <si>
+    <t>fm-bay</t>
+  </si>
+  <si>
+    <t>fm-geom</t>
+  </si>
+  <si>
+    <t>fm-dipole</t>
+  </si>
+  <si>
+    <t>update ferritic geometry based on mesurments (Bayesian)</t>
+  </si>
+  <si>
+    <t>lin-refactor</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>pse</t>
+  </si>
+  <si>
+    <t>wm-wf</t>
+  </si>
+  <si>
+    <t>develop ensemble Kalman filters for plasma (3D)</t>
+  </si>
+  <si>
+    <t>implement full state-aware model (plasma+passive, 2D)</t>
+  </si>
+  <si>
+    <t>implement full state-aware model (plasma+passive, 3D)</t>
+  </si>
+  <si>
+    <t>check exisiting code convergence (mag constraint / shifted grids)</t>
+  </si>
+  <si>
+    <t>code improvement (GS convergence - Newtons method)</t>
+  </si>
+  <si>
+    <t>SCOD,CCFE,F4E</t>
+  </si>
+  <si>
+    <t>SCOD,F4E</t>
+  </si>
+  <si>
+    <t>define minimization objective(s) (minimum free-energy,.. ?)</t>
+  </si>
+  <si>
+    <t>develop generic paramitrizations (flux functions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deploy 2D </t>
+  </si>
+  <si>
+    <t>refactor for real-time / feedback paramitrizations to linear model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deploy 3D </t>
+  </si>
+  <si>
+    <t>transfer existing 2D codes to IMAS (EFIT++, PEFIT, LUCIE)</t>
+  </si>
+  <si>
+    <t>transfer existing 3D codes to IMAS (CLISTE)</t>
+  </si>
+  <si>
+    <t>develop Kalman filters for plasma (mag-only 2D)</t>
+  </si>
+  <si>
+    <t>develop Kalman filters for plasma (mag-only + MSE 2D)</t>
+  </si>
+  <si>
+    <t>develop Kalman filters for plasma (full diagnostics 2D)</t>
+  </si>
+  <si>
+    <t>benchmark (synthetic mag-only)</t>
+  </si>
+  <si>
+    <t>benchmark (synthetic mag + MSE)</t>
+  </si>
+  <si>
+    <t>benchmark (synthetic full diagnostic baseline)</t>
+  </si>
+  <si>
+    <t>develop 2D wall model (eddy current)</t>
+  </si>
+  <si>
+    <t>validate 2D using synthetic + Alcator-C mod data</t>
+  </si>
+  <si>
+    <t>develop 3D wall model (eddy current)</t>
+  </si>
+  <si>
+    <t>validate 3D using synthetic + Alcator-C mod data</t>
+  </si>
+  <si>
+    <t>wm-3d-val</t>
+  </si>
+  <si>
+    <t>wm-2d-cal</t>
+  </si>
+  <si>
+    <t>commission full baseline diagnostic set</t>
+  </si>
+  <si>
+    <t>diag-full</t>
+  </si>
+  <si>
+    <t>MSE,PFPO1</t>
+  </si>
+  <si>
+    <t>wm-2d-eddy</t>
+  </si>
+  <si>
+    <t>wm-2d-val</t>
+  </si>
+  <si>
+    <t>fm</t>
+  </si>
+  <si>
+    <t>lin-bm-mag</t>
+  </si>
+  <si>
+    <t>lin-bm-MSE</t>
+  </si>
+  <si>
+    <t>lin-bm-full</t>
+  </si>
+  <si>
+    <t>lin-bm-mag,lin-bm-MSE,lin-bm-full</t>
+  </si>
+  <si>
+    <t>benchmark (machine(s) full avalible)</t>
+  </si>
+  <si>
+    <t>lin-bm-machine</t>
+  </si>
+  <si>
+    <t>lin-conv</t>
+  </si>
+  <si>
+    <t>lin-convNM</t>
+  </si>
+  <si>
+    <t>lin-code2d</t>
+  </si>
+  <si>
+    <t>lin-code3d</t>
+  </si>
+  <si>
+    <t>pkm-mag2d</t>
+  </si>
+  <si>
+    <t>pkm-MSE2d</t>
+  </si>
+  <si>
+    <t>pkm-full2d</t>
+  </si>
+  <si>
+    <t>sam3d</t>
+  </si>
+  <si>
+    <t>sam2d</t>
+  </si>
+  <si>
+    <t>pekm-full3d</t>
+  </si>
+  <si>
+    <t>nlr</t>
+  </si>
+  <si>
+    <t>nlr-obj</t>
+  </si>
+  <si>
+    <t>nlr-param</t>
+  </si>
+  <si>
+    <t>nlr-2d</t>
+  </si>
+  <si>
+    <t>nlr3d</t>
+  </si>
+  <si>
+    <t>nrl-refactor</t>
+  </si>
+  <si>
+    <t>wm-3d-eddy</t>
+  </si>
+  <si>
+    <t>wm-3d-cal</t>
+  </si>
+  <si>
+    <t>fm-geom,mag-bay</t>
+  </si>
+  <si>
+    <t>wm-ol,wm-2d-cal</t>
   </si>
 </sst>
 </file>
@@ -178,10 +469,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,23 +754,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.08984375" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,245 +785,405 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2">
+        <f>3*12</f>
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45992</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6">
+        <f>16+8</f>
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7">
+        <f>16+8</f>
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8">
+        <f>16+8</f>
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H10" s="2"/>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2"/>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C17" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="2"/>
+      <c r="H18" s="2">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="2"/>
+      <c r="H19" s="2">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="2"/>
+      <c r="H20" s="2">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -735,35 +1191,628 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>33</v>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/nova/projects/equilibrium/work_plan.xlsx
+++ b/nova/projects/equilibrium/work_plan.xlsx
@@ -1200,9 +1200,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1310,7 +1310,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="3">
-        <v>46023</v>
+        <v>47088</v>
       </c>
       <c r="I5" t="s">
         <v>24</v>

--- a/nova/projects/equilibrium/work_plan.xlsx
+++ b/nova/projects/equilibrium/work_plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="310">
   <si>
     <t>task</t>
   </si>
@@ -197,9 +197,6 @@
     <t>wm-3d-eddy</t>
   </si>
   <si>
-    <t>wm-3d-cal</t>
-  </si>
-  <si>
     <t>lin-bm-full-real</t>
   </si>
   <si>
@@ -266,12 +263,6 @@
     <t>calculate proximity to ideal low-n linear stability in 2d equilibrium</t>
   </si>
   <si>
-    <t>develop benchmark and quality metrics</t>
-  </si>
-  <si>
-    <t>calculate positions of low-n rational surfaces</t>
-  </si>
-  <si>
     <t>calculate proximity to ideal low-n linear stability in 3d equilibrium</t>
   </si>
   <si>
@@ -290,9 +281,6 @@
     <t>calculate resistive low-n stability (NTMs)</t>
   </si>
   <si>
-    <t>interface to engineering</t>
-  </si>
-  <si>
     <t>baseline-map3d</t>
   </si>
   <si>
@@ -338,9 +326,6 @@
     <t>wm-disrupt-half</t>
   </si>
   <si>
-    <t>ms-wm-3d</t>
-  </si>
-  <si>
     <t>wm-shield-3d</t>
   </si>
   <si>
@@ -374,51 +359,12 @@
     <t>ms-pkm2d</t>
   </si>
   <si>
-    <t>pkm-dnb</t>
-  </si>
-  <si>
     <t>ms-pekm3d</t>
   </si>
   <si>
     <t>validate positions of low-n rational surface on RTN</t>
   </si>
   <si>
-    <t>interface with inductive compensator used by quench detection system</t>
-  </si>
-  <si>
-    <t>define interfaces to ensure timely propagation of EM data</t>
-  </si>
-  <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t>eng-data</t>
-  </si>
-  <si>
-    <t>calculate forces on EM components (coils, feeders, vessel, sieldblocks)</t>
-  </si>
-  <si>
-    <t>eng-dBdt</t>
-  </si>
-  <si>
-    <t>eng-force</t>
-  </si>
-  <si>
-    <t>eng-fatigue</t>
-  </si>
-  <si>
-    <t>eng-qd</t>
-  </si>
-  <si>
-    <t>eng-full-pulse</t>
-  </si>
-  <si>
-    <t>ms-eng-baseline</t>
-  </si>
-  <si>
-    <t>ms-eng-full</t>
-  </si>
-  <si>
     <t>sta</t>
   </si>
   <si>
@@ -500,18 +446,6 @@
     <t>ms-lin-code-rt2d</t>
   </si>
   <si>
-    <t>benchmark (mag-only)</t>
-  </si>
-  <si>
-    <t>benchmark (mag + initial kinetic)</t>
-  </si>
-  <si>
-    <t>benchmark (full diagnostic baseline)</t>
-  </si>
-  <si>
-    <t>benchmark (other tokamaks, full diagnostic baseline)</t>
-  </si>
-  <si>
     <t>lin-code2d,sdiag-FP,lin-metric</t>
   </si>
   <si>
@@ -524,18 +458,12 @@
     <t>ms-wm-2d-fast</t>
   </si>
   <si>
-    <t>ms-wm-2d-fast-shield</t>
-  </si>
-  <si>
     <t>validate 3D wall model on Alcator-C mod data</t>
   </si>
   <si>
     <t>validate / develop 2D magnet commissioning waveforms</t>
   </si>
   <si>
-    <t>validate / develop 3D magnet commissioning waveforms (ELM)</t>
-  </si>
-  <si>
     <t>ms-wm-ol-3d</t>
   </si>
   <si>
@@ -566,32 +494,6 @@
     <t xml:space="preserve">benchmark 3D equilibrium + 1D transport model </t>
   </si>
   <si>
-    <r>
-      <t>calculate d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dt waveforms along all superconducting paths (includes disruptions)</t>
-    </r>
-  </si>
-  <si>
     <t>nlr-opp-2d</t>
   </si>
   <si>
@@ -604,9 +506,6 @@
     <t>nlr-refactor</t>
   </si>
   <si>
-    <t>ms-lin-code3d,ms-nlr2d</t>
-  </si>
-  <si>
     <t>full set of synthetic diagnostics available</t>
   </si>
   <si>
@@ -634,12 +533,6 @@
     <t>tune model to fit disruption behaviour (half current)</t>
   </si>
   <si>
-    <t>fast transient 2D model available + shield-blocks</t>
-  </si>
-  <si>
-    <t>fast transient 3D model available</t>
-  </si>
-  <si>
     <t>tune 2D and 3D models to fit disruption behaviour (full current)</t>
   </si>
   <si>
@@ -658,24 +551,9 @@
     <t>2D plasma Kalman filter available</t>
   </si>
   <si>
-    <t>establish operation with switched diagnostics (DNB duty cycle)</t>
-  </si>
-  <si>
     <t>3D plasma Kalman filter available</t>
   </si>
   <si>
-    <t>baseline engineering data available</t>
-  </si>
-  <si>
-    <t>calculate lifetime consumption of EM components (fatigue)</t>
-  </si>
-  <si>
-    <t>develop full-pulse reconstructions (pre/post plasma) to inform AC-loss calculations</t>
-  </si>
-  <si>
-    <t>full-set of engineering data available</t>
-  </si>
-  <si>
     <t>couple non-linear search algorithms (optimizers) to 2D code</t>
   </si>
   <si>
@@ -688,9 +566,6 @@
     <t>non-linear 3D reconstructions available</t>
   </si>
   <si>
-    <t>eng-force,eng-dBdt</t>
-  </si>
-  <si>
     <t>as-built correction coil geometric data available</t>
   </si>
   <si>
@@ -718,9 +593,6 @@
     <t>elm-coil-map3d,sta-high-n</t>
   </si>
   <si>
-    <t>wm-wf,ms-mag-only</t>
-  </si>
-  <si>
     <t>ms-kinetic1</t>
   </si>
   <si>
@@ -745,12 +617,6 @@
     <t>diagnostic feed pre-processing</t>
   </si>
   <si>
-    <t>adapt existing 2D codes to IMAS</t>
-  </si>
-  <si>
-    <t>adapt existing 3D codes to IMAS</t>
-  </si>
-  <si>
     <t xml:space="preserve">select real-time 2D reconstruction code and make available on SDCC </t>
   </si>
   <si>
@@ -781,9 +647,6 @@
     <t xml:space="preserve">tune 2D wall model </t>
   </si>
   <si>
-    <t xml:space="preserve">tune 3D wall model </t>
-  </si>
-  <si>
     <t>A-I</t>
   </si>
   <si>
@@ -859,12 +722,6 @@
     <t>lin-code2d,sdiag-PFPO-2,lin-bm-initial-kinetic</t>
   </si>
   <si>
-    <t>ms-ferritic-inserts,ms-wm-3d,PFPO-1</t>
-  </si>
-  <si>
-    <t>lin-code3d,PFPO-2,sta-other</t>
-  </si>
-  <si>
     <t>sdiag-PFPO-1</t>
   </si>
   <si>
@@ -925,16 +782,178 @@
     <t>fm-dipole-tbm,diag-full-bay</t>
   </si>
   <si>
-    <t>magnetics-only available</t>
-  </si>
-  <si>
-    <t>magnetics-only inference</t>
-  </si>
-  <si>
     <t>lin_recon</t>
   </si>
   <si>
     <t>perform low current equilibrium reconstructions (online + offline codes)</t>
+  </si>
+  <si>
+    <t>develop 3D magnet commissioning waveforms (ELM)</t>
+  </si>
+  <si>
+    <t>develop 3D magnet commissioning waveforms (full current)</t>
+  </si>
+  <si>
+    <t>wm-wf-shield-3d</t>
+  </si>
+  <si>
+    <t>calculate positions of low-n rational surfaces (synthetic input)</t>
+  </si>
+  <si>
+    <t>ms-wm-2d-fast-half</t>
+  </si>
+  <si>
+    <t>lin-code3d,sta-other</t>
+  </si>
+  <si>
+    <t>ms-wm-ol-3d,IC-III</t>
+  </si>
+  <si>
+    <t>ms-ferritic-inserts,sta-automatic</t>
+  </si>
+  <si>
+    <t>calculate resistive low-n stability (NTMs) including TBMs</t>
+  </si>
+  <si>
+    <t>sta-NTMs-TBM</t>
+  </si>
+  <si>
+    <t>ms-lin-code3d,PFPO-1</t>
+  </si>
+  <si>
+    <t>tm-trans3d,PFPO-1,IC-III</t>
+  </si>
+  <si>
+    <t>pkm-full2d,ms-trans2d</t>
+  </si>
+  <si>
+    <t>tm-trans3d-forw,pekm-full3d</t>
+  </si>
+  <si>
+    <t>equilibrium generation</t>
+  </si>
+  <si>
+    <t>eg</t>
+  </si>
+  <si>
+    <t>adapt 3D codes to IMAS</t>
+  </si>
+  <si>
+    <t>adapt external 2D codes to IMAS</t>
+  </si>
+  <si>
+    <t>develop benchmarks and quality metrics</t>
+  </si>
+  <si>
+    <t>adapt in-house 2D free-boundary GS solver to IMAS</t>
+  </si>
+  <si>
+    <t>establish need for in-house 3D equilibrium generation capability</t>
+  </si>
+  <si>
+    <t>develop in-house 3D free-boundary GS solver</t>
+  </si>
+  <si>
+    <t>couple in-house code to transient eddy current and power suply models</t>
+  </si>
+  <si>
+    <t>tune 2D wall model using 3D disruption simulations (Maxwel / Ansys)</t>
+  </si>
+  <si>
+    <t>nova</t>
+  </si>
+  <si>
+    <t>nova-map</t>
+  </si>
+  <si>
+    <t>lin-verify</t>
+  </si>
+  <si>
+    <t>nova-eddy</t>
+  </si>
+  <si>
+    <t>verify implementation of in-house 2D solver against external codes</t>
+  </si>
+  <si>
+    <t>verify implementation of in-house 3D solver against external codes</t>
+  </si>
+  <si>
+    <t>nova-3D-GS</t>
+  </si>
+  <si>
+    <t>nova-3D-eddy</t>
+  </si>
+  <si>
+    <t>nova-3D-GS-verify</t>
+  </si>
+  <si>
+    <t>nova-3D-GS-need</t>
+  </si>
+  <si>
+    <t>benchmark (synthetic mag-only)</t>
+  </si>
+  <si>
+    <t>benchmark (synthetic mag-only + initial kinetic)</t>
+  </si>
+  <si>
+    <t>benchmark (synthetic full diagnostic baseline)</t>
+  </si>
+  <si>
+    <t>benchmark (experimental no other tokamaks, full diagnostic baseline)</t>
+  </si>
+  <si>
+    <t>investigate use of non-standard diagnostics (vessel strain and displacment)</t>
+  </si>
+  <si>
+    <t>lin-strain</t>
+  </si>
+  <si>
+    <t>lin-strain-nova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extend in-house code to use vv structural diagnostics </t>
+  </si>
+  <si>
+    <t>ms-lin-strain-nova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seperation of plasma and vessel current in advance of kinetic mesurments </t>
+  </si>
+  <si>
+    <t>in-house free-boundary equilibrium solver avalible</t>
+  </si>
+  <si>
+    <t>ms-nova</t>
+  </si>
+  <si>
+    <t>transient in-house free-boundary equilibrium solver avalible</t>
+  </si>
+  <si>
+    <t>ms-nova-trans</t>
+  </si>
+  <si>
+    <t>3D in-house free-boundary equilibrium solver avalible</t>
+  </si>
+  <si>
+    <t>ms-nova-3d</t>
+  </si>
+  <si>
+    <t>identify and develop IMAS equilibrium tools (flux mapping and transforms)</t>
+  </si>
+  <si>
+    <t>magnetics-only inference (vacuum field)</t>
+  </si>
+  <si>
+    <t>wm-wf,mag-only-bay</t>
+  </si>
+  <si>
+    <t>magnetics-only diagnostics avalible</t>
+  </si>
+  <si>
+    <t>magnetics-only inference (low current)</t>
+  </si>
+  <si>
+    <t>mag-only-fp</t>
   </si>
 </sst>
 </file>
@@ -1273,11 +1292,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J155"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1287,7 +1306,7 @@
     <col min="3" max="3" width="8.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
@@ -1328,17 +1347,17 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="C2">
         <f>4*12+3</f>
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
@@ -1351,13 +1370,13 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="C3">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -1384,7 +1403,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3">
-        <v>45992</v>
+        <v>47088</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1395,13 +1414,13 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="C5">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
@@ -1417,17 +1436,17 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1445,11 +1464,11 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1461,17 +1480,17 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="C8">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1483,17 +1502,17 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1511,11 +1530,11 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1527,17 +1546,17 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="C11">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1549,17 +1568,17 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1577,11 +1596,11 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1593,17 +1612,17 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="C14">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1621,11 +1640,11 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1637,17 +1656,17 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="C16">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="2" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1665,11 +1684,11 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1681,17 +1700,17 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="C18">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="2" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1709,11 +1728,11 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1725,17 +1744,17 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="C20">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1753,11 +1772,11 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="2" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1769,17 +1788,17 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="2" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1797,11 +1816,11 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="2" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1814,578 +1833,485 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" t="s">
-        <v>26</v>
+      <c r="D25" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C26" s="6">
-        <v>-24</v>
+      <c r="B26" t="s">
+        <v>304</v>
+      </c>
+      <c r="C26" s="5">
+        <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" t="s">
-        <v>25</v>
+        <v>279</v>
+      </c>
+      <c r="E26" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="6">
-        <v>3</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
-        <v>276</v>
+      <c r="B27" t="s">
+        <v>273</v>
+      </c>
+      <c r="C27" s="5">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>278</v>
+      </c>
+      <c r="E27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>271</v>
       </c>
       <c r="C28" s="6">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" t="s">
-        <v>18</v>
-      </c>
+      <c r="F28" t="s">
+        <v>278</v>
+      </c>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C29" s="6">
-        <v>9</v>
+      <c r="B29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C29" s="5">
+        <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C30" s="6">
-        <v>9</v>
+      <c r="B30" t="s">
+        <v>298</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E30" s="2"/>
+        <v>299</v>
+      </c>
       <c r="F30" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" t="s">
-        <v>18</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0</v>
+      <c r="B31" t="s">
+        <v>276</v>
+      </c>
+      <c r="C31" s="5">
+        <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C32" s="6">
-        <v>9</v>
+      <c r="B32" t="s">
+        <v>277</v>
+      </c>
+      <c r="C32" s="5">
+        <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E32" s="2"/>
+        <v>285</v>
+      </c>
       <c r="F32" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C33" s="6">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" s="5">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>287</v>
+      </c>
+      <c r="E34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>275</v>
+      </c>
+      <c r="C35" s="5">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>283</v>
+      </c>
+      <c r="C36" s="5">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>286</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>302</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>303</v>
+      </c>
+      <c r="F37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C34" s="6">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C35" s="6">
+      <c r="B39" t="s">
         <v>0</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C36" s="6">
-        <v>18</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="6">
-        <v>16</v>
-      </c>
+      <c r="C39" s="6"/>
       <c r="D39" s="2" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="7">
-        <v>44652</v>
-      </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
-        <v>287</v>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>272</v>
       </c>
       <c r="C40" s="6">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>272</v>
+        <v>105</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="7"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
         <v>288</v>
       </c>
       <c r="C41" s="6">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F41" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
-        <v>186</v>
+      <c r="I41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>199</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E42" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="F42" s="2" t="s">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>289</v>
+      </c>
+      <c r="C43" s="6">
+        <v>6</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>290</v>
+      </c>
+      <c r="C44" s="6">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2" t="s">
-        <v>154</v>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>291</v>
       </c>
       <c r="C45" s="6">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F45" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="2" t="s">
-        <v>292</v>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>197</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s">
-        <v>246</v>
+        <v>139</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="2" t="s">
-        <v>293</v>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>73</v>
       </c>
       <c r="C47" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="F47" s="2" t="s">
-        <v>246</v>
+        <v>57</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="2" t="s">
-        <v>289</v>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>292</v>
       </c>
       <c r="C48" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>224</v>
+        <v>293</v>
       </c>
       <c r="E48" s="2"/>
-      <c r="F48" t="s">
-        <v>249</v>
+      <c r="F48" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="2" t="s">
-        <v>227</v>
+      <c r="B49" t="s">
+        <v>295</v>
       </c>
       <c r="C49" s="6">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>294</v>
       </c>
       <c r="E49" s="2"/>
-      <c r="F49" t="s">
-        <v>224</v>
+      <c r="F49" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2" t="s">
-        <v>155</v>
+      <c r="B50" t="s">
+        <v>297</v>
       </c>
       <c r="C50" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F50" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="2" t="s">
-        <v>187</v>
+      <c r="B51" t="s">
+        <v>253</v>
       </c>
       <c r="C51" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>252</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="2" t="s">
-        <v>225</v>
+      <c r="B52" t="s">
+        <v>200</v>
       </c>
       <c r="C52" s="6">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="F52" t="s">
+      <c r="F52" s="2" t="s">
         <v>252</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="2" t="s">
-        <v>290</v>
+      <c r="B53" t="s">
+        <v>270</v>
       </c>
       <c r="C53" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E53" s="2"/>
+        <v>48</v>
+      </c>
       <c r="F53" s="2" t="s">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
+      <c r="I53" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="2" t="s">
-        <v>228</v>
+      <c r="B54" t="s">
+        <v>162</v>
       </c>
       <c r="C54" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>291</v>
+        <v>48</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+      <c r="A55" t="s">
         <v>16</v>
       </c>
       <c r="B55" s="2"/>
@@ -2400,481 +2326,442 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="6"/>
       <c r="D56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>232</v>
-      </c>
-      <c r="C57" s="6">
+        <v>65</v>
+      </c>
+      <c r="C57" s="5">
         <v>6</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="7">
-        <v>44562</v>
+        <v>53</v>
+      </c>
+      <c r="E57" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="6">
-        <v>3</v>
+        <v>74</v>
+      </c>
+      <c r="C58" s="5">
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="2"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>158</v>
       </c>
-      <c r="C59" s="6">
-        <v>6</v>
+      <c r="C59" s="5">
+        <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="2"/>
+        <v>159</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>236</v>
-      </c>
-      <c r="C60" s="6">
-        <v>0</v>
+        <v>176</v>
+      </c>
+      <c r="C60" s="5">
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E60" s="2"/>
+        <v>156</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+        <v>159</v>
+      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>159</v>
-      </c>
-      <c r="C61" s="6">
+        <v>75</v>
+      </c>
+      <c r="C61" s="5">
         <v>6</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E61" s="2"/>
+        <v>58</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+        <v>156</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>160</v>
-      </c>
-      <c r="C62" s="6">
-        <v>9</v>
+        <v>177</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62" s="2"/>
+        <v>128</v>
+      </c>
       <c r="F62" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>161</v>
-      </c>
-      <c r="C63" s="6">
-        <v>9</v>
+        <v>178</v>
+      </c>
+      <c r="C63" s="5">
+        <v>3</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E63" s="2"/>
+        <v>157</v>
+      </c>
       <c r="F63" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+        <v>128</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>234</v>
-      </c>
-      <c r="C64" s="6">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="C64" s="5">
+        <v>6</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" s="6">
-        <v>3</v>
+        <v>179</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E65" s="2"/>
+        <v>129</v>
+      </c>
       <c r="F65" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>295</v>
-      </c>
-      <c r="C66" s="6">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>237</v>
-      </c>
-      <c r="C67" s="6">
-        <v>9</v>
-      </c>
+      <c r="A67" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="6"/>
       <c r="D67" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
+      <c r="I67" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>233</v>
+      <c r="A68" s="2"/>
+      <c r="B68" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C68" s="6">
-        <v>18</v>
+        <v>-24</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E68" t="s">
-        <v>250</v>
-      </c>
-      <c r="F68" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>188</v>
+      <c r="A69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C69" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
+      <c r="I69" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="2"/>
+      <c r="A70" s="2"/>
+      <c r="B70" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C70" s="6">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
+      <c r="I70" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="C71" s="6">
+        <v>9</v>
+      </c>
       <c r="D71" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
-      <c r="B72" t="s">
-        <v>238</v>
+      <c r="B72" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C72" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F72" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
+      <c r="I72" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>70</v>
+        <v>242</v>
       </c>
       <c r="C73" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>29</v>
+        <v>241</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F73" s="2"/>
-      <c r="G73" s="7">
-        <v>44409</v>
-      </c>
+      <c r="G73" s="2"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="C74" s="6">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="C75" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>90</v>
+        <v>182</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="C76" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
+      <c r="I76" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
-        <v>94</v>
+        <v>243</v>
       </c>
       <c r="C77" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F77" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>71</v>
+        <v>245</v>
       </c>
       <c r="C78" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C79" s="6">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="A79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="2"/>
+      <c r="A80" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="B80" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C80" s="6">
         <v>0</v>
       </c>
+      <c r="C80" s="6"/>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="E80" s="2"/>
-      <c r="F80" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="A81" s="2"/>
+      <c r="B81" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" s="6">
+        <v>18</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
+      <c r="H81" s="7"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" s="6"/>
+        <v>247</v>
+      </c>
+      <c r="C82" s="6">
+        <v>18</v>
+      </c>
       <c r="D82" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E82" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -2884,19 +2771,19 @@
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C83" s="6">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G83" s="7"/>
+        <v>229</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -2904,17 +2791,17 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c r="C84" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>109</v>
+        <v>229</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -2922,60 +2809,51 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C85" s="6">
-        <v>3</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="A85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="2"/>
+      <c r="A86" t="s">
+        <v>196</v>
+      </c>
       <c r="B86" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C86" s="6">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C86" s="6"/>
       <c r="D86" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E86" s="2"/>
-      <c r="F86" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
+      <c r="I86" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="J86" s="2"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
-        <v>243</v>
+        <v>136</v>
       </c>
       <c r="C87" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -2984,17 +2862,17 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="C88" s="6">
         <v>0</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -3002,80 +2880,79 @@
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c r="C89" s="6">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>247</v>
+        <v>131</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
+      <c r="I89" t="s">
+        <v>18</v>
+      </c>
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>193</v>
+        <v>308</v>
       </c>
       <c r="C90" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2" t="s">
-        <v>101</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
       <c r="J90" s="2"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="2"/>
       <c r="B91" s="2" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="C91" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F91" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s">
+        <v>211</v>
+      </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
+      <c r="I91" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="J91" s="2"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C92" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F92" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s">
+        <v>189</v>
+      </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -3084,138 +2961,126 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="C93" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="C94" s="6">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F94" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="C95" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F95" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s">
+        <v>214</v>
+      </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>169</v>
+        <v>250</v>
       </c>
       <c r="C96" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F96" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C97" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F97" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C98" s="6">
-        <v>6</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="2"/>
       <c r="E98" s="2"/>
-      <c r="F98" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" s="2"/>
+      <c r="A99" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B99" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C99" s="6">
         <v>0</v>
       </c>
+      <c r="C99" s="6"/>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="E99" s="2"/>
-      <c r="F99" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -3224,19 +3089,21 @@
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="C100" s="6">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E100" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="F100" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G100" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="G100" s="7"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
@@ -3244,17 +3111,19 @@
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C101" s="6">
         <v>6</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E101" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F101" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
@@ -3264,229 +3133,319 @@
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="C102" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2" t="s">
-        <v>171</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
+      <c r="A103" s="2"/>
+      <c r="B103" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103" s="6">
+        <v>6</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>84</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" s="6">
+        <v>6</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C105" s="6">
         <v>0</v>
       </c>
-      <c r="D104" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B105" t="s">
-        <v>81</v>
-      </c>
-      <c r="C105" s="5">
+      <c r="D105" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C106" s="6">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C107" s="6">
+        <v>0</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C108" s="6">
+        <v>3</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C109" s="6">
+        <v>3</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C110" s="6">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C111" s="6">
         <v>6</v>
       </c>
-      <c r="D105" t="s">
-        <v>132</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B106" t="s">
-        <v>118</v>
-      </c>
-      <c r="C106" s="5">
+      <c r="D111" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C112" s="6">
+        <v>6</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C113" s="6">
+        <v>0</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C114" s="6">
         <v>3</v>
       </c>
-      <c r="D106" t="s">
-        <v>133</v>
-      </c>
-      <c r="F106" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
-        <v>79</v>
-      </c>
-      <c r="C107" s="5">
+      <c r="D114" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C115" s="6">
         <v>9</v>
       </c>
-      <c r="D107" t="s">
-        <v>135</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B108" t="s">
-        <v>199</v>
-      </c>
-      <c r="C108" s="5">
-        <v>0</v>
-      </c>
-      <c r="D108" t="s">
-        <v>142</v>
-      </c>
-      <c r="F108" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
-        <v>85</v>
-      </c>
-      <c r="C109" s="5">
-        <v>6</v>
-      </c>
-      <c r="D109" t="s">
-        <v>134</v>
-      </c>
-      <c r="F109" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
-        <v>87</v>
-      </c>
-      <c r="C110" s="5">
-        <v>12</v>
-      </c>
-      <c r="D110" t="s">
-        <v>136</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
-        <v>176</v>
-      </c>
-      <c r="C111" s="5">
+      <c r="D115" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C116" s="6">
         <v>9</v>
       </c>
-      <c r="D111" t="s">
-        <v>137</v>
-      </c>
-      <c r="F111" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B112" t="s">
-        <v>83</v>
-      </c>
-      <c r="C112" s="5">
-        <v>6</v>
-      </c>
-      <c r="D112" t="s">
-        <v>138</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
-        <v>177</v>
-      </c>
-      <c r="C113" s="5">
-        <v>9</v>
-      </c>
-      <c r="D113" t="s">
-        <v>139</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
-        <v>86</v>
-      </c>
-      <c r="C114" s="5">
-        <v>9</v>
-      </c>
-      <c r="D114" t="s">
-        <v>140</v>
-      </c>
-      <c r="E114" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
-        <v>82</v>
-      </c>
-      <c r="C115" s="5">
-        <v>18</v>
-      </c>
-      <c r="D115" t="s">
-        <v>141</v>
-      </c>
-      <c r="E115" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="2"/>
+      <c r="D116" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
+      <c r="F116" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C117" s="6"/>
+        <v>169</v>
+      </c>
+      <c r="C117" s="6">
+        <v>6</v>
+      </c>
       <c r="D117" s="2" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
+      <c r="F117" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
@@ -3495,37 +3454,31 @@
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="C118" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F118" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C119" s="6">
-        <v>6</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="A119" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
@@ -3533,19 +3486,17 @@
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A120" s="2"/>
+      <c r="A120" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B120" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C120" s="6">
         <v>0</v>
       </c>
+      <c r="C120" s="6"/>
       <c r="D120" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
@@ -3554,17 +3505,17 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
-      <c r="B121" s="2" t="s">
-        <v>144</v>
+      <c r="B121" t="s">
+        <v>201</v>
       </c>
       <c r="C121" s="6">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
@@ -3575,19 +3526,19 @@
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="C122" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
+      <c r="G122" s="7"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
@@ -3595,46 +3546,57 @@
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2" t="s">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="C123" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>16</v>
-      </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
+      <c r="A124" s="2"/>
+      <c r="B124" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C124" s="6">
+        <v>6</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>11</v>
-      </c>
-      <c r="B125" t="s">
-        <v>0</v>
-      </c>
-      <c r="C125" s="6"/>
+      <c r="A125" s="2"/>
+      <c r="B125" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C125" s="6">
+        <v>12</v>
+      </c>
       <c r="D125" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E125" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
@@ -3642,445 +3604,613 @@
       <c r="J125" s="2"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B126" t="s">
-        <v>37</v>
+      <c r="A126" s="2"/>
+      <c r="B126" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="C126" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F126" s="2"/>
+        <v>14</v>
+      </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
-        <v>111</v>
+      <c r="A127" s="2"/>
+      <c r="B127" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="C127" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F127" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B128" t="s">
-        <v>38</v>
+      <c r="A128" s="2"/>
+      <c r="B128" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C128" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E128" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="F128" s="2" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B129" t="s">
-        <v>35</v>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="C129" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E129" s="2"/>
+        <v>93</v>
+      </c>
       <c r="F129" s="2" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B130" t="s">
-        <v>202</v>
-      </c>
-      <c r="C130" s="6">
-        <v>0</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="2"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B131" t="s">
-        <v>203</v>
-      </c>
-      <c r="C131" s="6">
-        <v>9</v>
-      </c>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="6"/>
       <c r="D131" s="2" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="E131" s="2"/>
-      <c r="F131" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B132" t="s">
-        <v>34</v>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C132" s="6">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F132" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B133" t="s">
-        <v>36</v>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C133" s="6">
         <v>6</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F133" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B134" t="s">
-        <v>204</v>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="C134" s="6">
         <v>0</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F134" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>16</v>
-      </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C135" s="6">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
+      <c r="F135" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>88</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C136" s="6">
+        <v>6</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C137" s="6">
         <v>0</v>
       </c>
-      <c r="D136" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B137" t="s">
-        <v>120</v>
-      </c>
-      <c r="C137" s="5">
-        <v>3</v>
-      </c>
-      <c r="D137" t="s">
-        <v>122</v>
-      </c>
-      <c r="E137" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B138" t="s">
-        <v>123</v>
-      </c>
-      <c r="C138" s="5">
+      <c r="D137" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>37</v>
+      </c>
+      <c r="C140" s="6">
         <v>6</v>
       </c>
-      <c r="D138" t="s">
-        <v>125</v>
-      </c>
-      <c r="F138" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B139" t="s">
-        <v>205</v>
-      </c>
-      <c r="C139" s="5">
+      <c r="D140" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>106</v>
+      </c>
+      <c r="C141" s="6">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>38</v>
+      </c>
+      <c r="C142" s="6">
+        <v>6</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>35</v>
+      </c>
+      <c r="C143" s="6">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>174</v>
+      </c>
+      <c r="C144" s="6">
         <v>0</v>
       </c>
-      <c r="D139" t="s">
-        <v>129</v>
-      </c>
-      <c r="F139" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C140" s="5">
-        <v>9</v>
-      </c>
-      <c r="D140" t="s">
-        <v>124</v>
-      </c>
-      <c r="E140" t="s">
-        <v>250</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B141" t="s">
-        <v>206</v>
-      </c>
-      <c r="C141" s="5">
-        <v>12</v>
-      </c>
-      <c r="D141" t="s">
-        <v>126</v>
-      </c>
-      <c r="F141" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B142" t="s">
-        <v>119</v>
-      </c>
-      <c r="C142" s="5">
-        <v>9</v>
-      </c>
-      <c r="D142" t="s">
-        <v>127</v>
-      </c>
-      <c r="E142" t="s">
-        <v>253</v>
-      </c>
-      <c r="F142" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B143" t="s">
-        <v>207</v>
-      </c>
-      <c r="C143" s="5">
+      <c r="D144" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>34</v>
+      </c>
+      <c r="C145" s="6">
         <v>18</v>
       </c>
-      <c r="D143" t="s">
-        <v>128</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B144" t="s">
-        <v>208</v>
-      </c>
-      <c r="C144" s="5">
+      <c r="D145" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>36</v>
+      </c>
+      <c r="C146" s="6">
+        <v>6</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>175</v>
+      </c>
+      <c r="C147" s="6">
         <v>0</v>
       </c>
-      <c r="D144" t="s">
-        <v>130</v>
-      </c>
-      <c r="F144" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+      <c r="D147" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>13</v>
-      </c>
-      <c r="B146" t="s">
+      <c r="C148" s="6"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>81</v>
+      </c>
+      <c r="B149" t="s">
         <v>0</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B147" t="s">
-        <v>66</v>
-      </c>
-      <c r="C147" s="5">
-        <v>6</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E147" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B148" t="s">
-        <v>75</v>
-      </c>
-      <c r="C148" s="5">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B149" t="s">
-        <v>183</v>
-      </c>
-      <c r="C149" s="5">
-        <v>18</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D149" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="C150" s="5">
         <v>9</v>
       </c>
-      <c r="D150" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D150" t="s">
+        <v>114</v>
+      </c>
+      <c r="E150" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" s="2"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C151" s="5">
-        <v>6</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="D151" t="s">
+        <v>115</v>
+      </c>
+      <c r="F151" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="C152" s="5">
+        <v>9</v>
+      </c>
+      <c r="D152" t="s">
+        <v>117</v>
+      </c>
+      <c r="F152" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>171</v>
+      </c>
+      <c r="C153" s="5">
         <v>0</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B153" t="s">
-        <v>211</v>
-      </c>
-      <c r="C153" s="5">
-        <v>3</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D153" t="s">
+        <v>124</v>
+      </c>
+      <c r="F153" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C154" s="5">
         <v>6</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D154" t="s">
+        <v>116</v>
+      </c>
+      <c r="F154" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
-        <v>212</v>
+        <v>84</v>
       </c>
       <c r="C155" s="5">
-        <v>0</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>147</v>
+        <v>9</v>
+      </c>
+      <c r="D155" t="s">
+        <v>118</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>152</v>
+      </c>
+      <c r="C156" s="5">
+        <v>3</v>
+      </c>
+      <c r="D156" t="s">
+        <v>119</v>
+      </c>
+      <c r="F156" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>80</v>
+      </c>
+      <c r="C157" s="5">
+        <v>6</v>
+      </c>
+      <c r="D157" t="s">
+        <v>120</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>153</v>
+      </c>
+      <c r="C158" s="5">
+        <v>9</v>
+      </c>
+      <c r="D158" t="s">
+        <v>121</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>83</v>
+      </c>
+      <c r="C159" s="5">
+        <v>9</v>
+      </c>
+      <c r="D159" t="s">
+        <v>122</v>
+      </c>
+      <c r="E159" t="s">
+        <v>214</v>
+      </c>
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>262</v>
+      </c>
+      <c r="C160" s="5">
+        <v>6</v>
+      </c>
+      <c r="D160" t="s">
+        <v>263</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>79</v>
+      </c>
+      <c r="C161" s="5">
+        <v>9</v>
+      </c>
+      <c r="D161" t="s">
+        <v>123</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B162" s="2"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nova/projects/equilibrium/work_plan.xlsx
+++ b/nova/projects/equilibrium/work_plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="310">
   <si>
     <t>task</t>
   </si>
@@ -59,9 +59,6 @@
     <t>tfopp</t>
   </si>
   <si>
-    <t>plasma state estimation</t>
-  </si>
-  <si>
     <t>linear reconstruction</t>
   </si>
   <si>
@@ -527,18 +524,12 @@
     <t>tune model to fit disruption behaviour (low current)</t>
   </si>
   <si>
-    <t>fast transient 2D model available</t>
-  </si>
-  <si>
     <t>tune model to fit disruption behaviour (half current)</t>
   </si>
   <si>
     <t>tune 2D and 3D models to fit disruption behaviour (full current)</t>
   </si>
   <si>
-    <t>fast transient 3D model available + shield-blocks</t>
-  </si>
-  <si>
     <t>baseline low-n stability metrics available</t>
   </si>
   <si>
@@ -818,9 +809,6 @@
     <t>sta-NTMs-TBM</t>
   </si>
   <si>
-    <t>ms-lin-code3d,PFPO-1</t>
-  </si>
-  <si>
     <t>tm-trans3d,PFPO-1,IC-III</t>
   </si>
   <si>
@@ -854,12 +842,6 @@
     <t>develop in-house 3D free-boundary GS solver</t>
   </si>
   <si>
-    <t>couple in-house code to transient eddy current and power suply models</t>
-  </si>
-  <si>
-    <t>tune 2D wall model using 3D disruption simulations (Maxwel / Ansys)</t>
-  </si>
-  <si>
     <t>nova</t>
   </si>
   <si>
@@ -902,9 +884,6 @@
     <t>benchmark (experimental no other tokamaks, full diagnostic baseline)</t>
   </si>
   <si>
-    <t>investigate use of non-standard diagnostics (vessel strain and displacment)</t>
-  </si>
-  <si>
     <t>lin-strain</t>
   </si>
   <si>
@@ -917,24 +896,12 @@
     <t>ms-lin-strain-nova</t>
   </si>
   <si>
-    <t xml:space="preserve">seperation of plasma and vessel current in advance of kinetic mesurments </t>
-  </si>
-  <si>
-    <t>in-house free-boundary equilibrium solver avalible</t>
-  </si>
-  <si>
     <t>ms-nova</t>
   </si>
   <si>
-    <t>transient in-house free-boundary equilibrium solver avalible</t>
-  </si>
-  <si>
     <t>ms-nova-trans</t>
   </si>
   <si>
-    <t>3D in-house free-boundary equilibrium solver avalible</t>
-  </si>
-  <si>
     <t>ms-nova-3d</t>
   </si>
   <si>
@@ -947,13 +914,46 @@
     <t>wm-wf,mag-only-bay</t>
   </si>
   <si>
-    <t>magnetics-only diagnostics avalible</t>
-  </si>
-  <si>
     <t>magnetics-only inference (low current)</t>
   </si>
   <si>
     <t>mag-only-fp</t>
+  </si>
+  <si>
+    <t>in-house free-boundary equilibrium solver available</t>
+  </si>
+  <si>
+    <t>couple in-house code to transient eddy current and power supply models</t>
+  </si>
+  <si>
+    <t>tune 2D wall model using 3D disruption simulations (Maxwell / Ansys)</t>
+  </si>
+  <si>
+    <t>transient in-house free-boundary equilibrium solver available</t>
+  </si>
+  <si>
+    <t>3D in-house free-boundary equilibrium solver available</t>
+  </si>
+  <si>
+    <t>investigate use of non-standard diagnostics (vessel strain and displacement)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">separation of plasma and vessel current in advance of kinetic measurements </t>
+  </si>
+  <si>
+    <t>magnetics-only diagnostics available</t>
+  </si>
+  <si>
+    <t>fast transient 2D model available (low current)</t>
+  </si>
+  <si>
+    <t>fast transient 2D model available (half current)</t>
+  </si>
+  <si>
+    <t>fast transient 3D model available + shield-blocks (full current)</t>
+  </si>
+  <si>
+    <t>kalman filter</t>
   </si>
 </sst>
 </file>
@@ -1295,24 +1295,24 @@
   <dimension ref="A1:J162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1326,10 +1326,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -1338,26 +1338,26 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C2">
         <f>4*12+3</f>
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
@@ -1365,21 +1365,21 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C3">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
@@ -1387,18 +1387,18 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
@@ -1409,499 +1409,499 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C5">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C8">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C11">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C14">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C16">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C18">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C20">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C26" s="5">
         <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E26" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C27" s="5">
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E27" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C28" s="6">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C29" s="5">
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>298</v>
       </c>
@@ -1909,97 +1909,97 @@
         <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
         <v>299</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>276</v>
       </c>
       <c r="C31" s="5">
         <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C32" s="5">
         <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C34" s="5">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>287</v>
-      </c>
-      <c r="E34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C35" s="5">
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>284</v>
-      </c>
-      <c r="E35" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+      <c r="F35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C36" s="5">
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>286</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+      <c r="F36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>302</v>
       </c>
@@ -2007,312 +2007,312 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="F37" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C40" s="6">
         <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C41" s="6">
         <v>6</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C43" s="6">
         <v>6</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C44" s="6">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C45" s="6">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" s="6">
         <v>3</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="C48" s="6">
         <v>3</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C49" s="6">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C50" s="6">
         <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C51" s="6">
         <v>6</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C52" s="6">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C53" s="6">
         <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C54" s="6">
         <v>0</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="6"/>
@@ -2324,739 +2324,766 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C57" s="5">
         <v>6</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C58" s="5">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C59" s="5">
         <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C60" s="5">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" s="5">
         <v>6</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C62" s="5">
         <v>0</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C63" s="5">
         <v>3</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64" s="5">
         <v>6</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C65" s="5">
         <v>0</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-      <c r="I67" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
-      <c r="B68" s="2" t="s">
-        <v>186</v>
+      <c r="B68" t="s">
+        <v>198</v>
       </c>
       <c r="C68" s="6">
-        <v>-24</v>
+        <v>3</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2" t="s">
-        <v>207</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C69" s="6">
         <v>3</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G69" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="7"/>
       <c r="H69" s="2"/>
-      <c r="I69" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>236</v>
+        <v>26</v>
       </c>
       <c r="C70" s="6">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
-      <c r="I70" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="C71" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>208</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>237</v>
+        <v>69</v>
       </c>
       <c r="C72" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2" t="s">
-        <v>183</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
-      <c r="I72" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="C73" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="2"/>
+        <v>13</v>
+      </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="C74" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C75" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E75" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="F75" s="2" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="C76" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E76" s="2"/>
+        <v>92</v>
+      </c>
       <c r="F76" s="2" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
-      <c r="I76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C77" s="6">
-        <v>0</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>244</v>
-      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="2" t="s">
-        <v>210</v>
-      </c>
+      <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B78" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C78" s="6">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C78" s="6"/>
       <c r="D78" s="2" t="s">
-        <v>246</v>
+        <v>5</v>
       </c>
       <c r="E78" s="2"/>
-      <c r="F78" s="2" t="s">
-        <v>244</v>
-      </c>
+      <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C79" s="6">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" s="7"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>94</v>
-      </c>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" s="6"/>
+        <v>202</v>
+      </c>
+      <c r="C80" s="6">
+        <v>6</v>
+      </c>
       <c r="D80" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="C81" s="6">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="7"/>
+      <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="C82" s="6">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="C83" s="6">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F83" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C84" s="6">
         <v>0</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>229</v>
+        <v>39</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="2"/>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" s="6">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
+      <c r="F85" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>196</v>
-      </c>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C86" s="6">
         <v>0</v>
       </c>
-      <c r="C86" s="6"/>
       <c r="D86" s="2" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="E86" s="2"/>
+      <c r="F86" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="C87" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F87" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>307</v>
+        <v>143</v>
       </c>
       <c r="C88" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="C89" s="6">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
-      <c r="I89" t="s">
-        <v>18</v>
-      </c>
+      <c r="I89" s="2"/>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>308</v>
+        <v>148</v>
       </c>
       <c r="C90" s="6">
         <v>6</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F90" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91" s="2"/>
       <c r="B91" s="2" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="C91" s="6">
         <v>6</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="E91" s="2"/>
-      <c r="F91" t="s">
-        <v>211</v>
+      <c r="F91" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
-      <c r="I91" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
-        <v>192</v>
+        <v>307</v>
       </c>
       <c r="C92" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>87</v>
+        <v>255</v>
       </c>
       <c r="E92" s="2"/>
-      <c r="F92" t="s">
-        <v>189</v>
+      <c r="F92" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C93" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F93" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C94" s="6">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="C95" s="6">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="E95" s="2"/>
-      <c r="F95" t="s">
-        <v>214</v>
+      <c r="F95" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="C96" s="6">
         <v>6</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
-        <v>193</v>
+        <v>308</v>
       </c>
       <c r="C97" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>251</v>
+        <v>146</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="6"/>
@@ -3068,534 +3095,511 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="C100" s="6">
-        <v>9</v>
+        <v>-24</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G100" s="7"/>
+        <v>204</v>
+      </c>
+      <c r="G100" s="2"/>
       <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
-        <v>205</v>
+        <v>9</v>
       </c>
       <c r="C101" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>145</v>
+        <v>233</v>
       </c>
       <c r="C102" s="6">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F102" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="C103" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>306</v>
+        <v>205</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="C104" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
-        <v>165</v>
+        <v>239</v>
       </c>
       <c r="C105" s="6">
         <v>0</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>166</v>
+        <v>236</v>
       </c>
       <c r="C106" s="6">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>97</v>
+        <v>237</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C107" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="C108" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="C109" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C110" s="6">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>101</v>
+        <v>243</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2" t="s">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C111" s="6">
-        <v>6</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>102</v>
-      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="2"/>
       <c r="E111" s="2"/>
-      <c r="F111" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A112" s="2"/>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="B112" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C112" s="6">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C112" s="6"/>
       <c r="D112" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="E112" s="2"/>
-      <c r="F112" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="C113" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F113" s="2"/>
       <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
+      <c r="H113" s="7"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>151</v>
+        <v>244</v>
       </c>
       <c r="C114" s="6">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>212</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
-        <v>150</v>
+        <v>245</v>
       </c>
       <c r="C115" s="6">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
-        <v>255</v>
+        <v>159</v>
       </c>
       <c r="C116" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>256</v>
+        <v>134</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C117" s="6">
-        <v>6</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>147</v>
-      </c>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="2"/>
       <c r="E117" s="2"/>
-      <c r="F117" s="2" t="s">
-        <v>256</v>
-      </c>
+      <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A118" s="2"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>193</v>
+      </c>
       <c r="B118" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C118" s="6">
         <v>0</v>
       </c>
+      <c r="C118" s="6"/>
       <c r="D118" s="2" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="E118" s="2"/>
-      <c r="F118" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
+      <c r="I118" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C119" s="6">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>21</v>
-      </c>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C120" s="6">
         <v>0</v>
       </c>
-      <c r="C120" s="6"/>
       <c r="D120" s="2" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
+      <c r="F120" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A121" s="2"/>
-      <c r="B121" t="s">
-        <v>201</v>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B121" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="C121" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F121" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
+      <c r="I121" t="s">
+        <v>17</v>
+      </c>
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="2"/>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B122" s="2" t="s">
-        <v>69</v>
+        <v>296</v>
       </c>
       <c r="C122" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>29</v>
+        <v>297</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="F122" s="2"/>
-      <c r="G122" s="7"/>
+      <c r="G122" s="2"/>
       <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123" s="2"/>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B123" s="2" t="s">
-        <v>27</v>
+        <v>246</v>
       </c>
       <c r="C123" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F123" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" t="s">
+        <v>208</v>
+      </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
+      <c r="I123" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A124" s="2"/>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B124" s="2" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="C124" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F124" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" t="s">
+        <v>186</v>
+      </c>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="C125" s="6">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -3603,89 +3607,85 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" s="2"/>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B126" s="2" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="C126" s="6">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>14</v>
+        <v>87</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A127" s="2"/>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B127" s="2" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="C127" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="E127" s="2"/>
-      <c r="F127" s="2" t="s">
-        <v>28</v>
+      <c r="F127" t="s">
+        <v>211</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A128" s="2"/>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B128" s="2" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="C128" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>215</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A129" s="2"/>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B129" s="2" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="C129" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>93</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
-        <v>91</v>
+        <v>248</v>
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="6"/>
@@ -3697,16 +3697,16 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -3715,129 +3715,131 @@
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C132" s="6">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C133" s="6">
         <v>6</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C134" s="6">
         <v>0</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
       <c r="B135" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C135" s="6">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E135" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="F135" s="2" t="s">
-        <v>264</v>
+        <v>137</v>
       </c>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C136" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C137" s="6">
         <v>0</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="2"/>
@@ -3846,16 +3848,16 @@
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="B139" t="s">
         <v>0</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -3864,151 +3866,151 @@
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C140" s="6">
         <v>6</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C141" s="6">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C142" s="6">
         <v>6</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C143" s="6">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C144" s="6">
         <v>0</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C145" s="6">
         <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C146" s="6">
         <v>6</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C147" s="6">
         <v>0</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="2"/>
@@ -4017,190 +4019,190 @@
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B149" t="s">
         <v>0</v>
       </c>
       <c r="D149" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C150" s="5">
         <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C151" s="5">
         <v>3</v>
       </c>
       <c r="D151" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F151" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C152" s="5">
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F152" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C153" s="5">
         <v>0</v>
       </c>
       <c r="D153" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F153" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C154" s="5">
         <v>6</v>
       </c>
       <c r="D154" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F154" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C155" s="5">
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C156" s="5">
         <v>3</v>
       </c>
       <c r="D156" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F156" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C157" s="5">
         <v>6</v>
       </c>
       <c r="D157" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C158" s="5">
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C159" s="5">
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E159" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C160" s="5">
         <v>6</v>
       </c>
       <c r="D160" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C161" s="5">
         <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="6"/>

--- a/nova/projects/equilibrium/work_plan.xlsx
+++ b/nova/projects/equilibrium/work_plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="292">
   <si>
     <t>task</t>
   </si>
@@ -299,12 +299,6 @@
     <t>fm-tbm-bay</t>
   </si>
   <si>
-    <t>ms-ferritic-inserts</t>
-  </si>
-  <si>
-    <t>ms-ferritic-tbm</t>
-  </si>
-  <si>
     <t>synthetic diagnostics</t>
   </si>
   <si>
@@ -335,9 +329,6 @@
     <t>sdiag-FP</t>
   </si>
   <si>
-    <t>wm-2d-eddy,sdiag-FP</t>
-  </si>
-  <si>
     <t>lin-metric</t>
   </si>
   <si>
@@ -419,9 +410,6 @@
     <t>diag-wf</t>
   </si>
   <si>
-    <t>fm-dipole-tbm,diag-full-tbm</t>
-  </si>
-  <si>
     <t>pkm</t>
   </si>
   <si>
@@ -449,27 +437,12 @@
     <t>lin-bm-initial-kinetic</t>
   </si>
   <si>
-    <t>ms-wm-2d-slow</t>
-  </si>
-  <si>
-    <t>ms-wm-2d-fast</t>
-  </si>
-  <si>
     <t>validate 3D wall model on Alcator-C mod data</t>
   </si>
   <si>
-    <t>validate / develop 2D magnet commissioning waveforms</t>
-  </si>
-  <si>
-    <t>ms-wm-ol-3d</t>
-  </si>
-  <si>
     <t>wm-ol-3d-fast</t>
   </si>
   <si>
-    <t>measure open-loop vessel response (2D model)</t>
-  </si>
-  <si>
     <t>measure open-loop vessel response (3D model)</t>
   </si>
   <si>
@@ -512,15 +485,6 @@
     <t xml:space="preserve">3D reconstruction codes available on SDCC </t>
   </si>
   <si>
-    <t>ferritic insert model available</t>
-  </si>
-  <si>
-    <t>ferritic TBM model available</t>
-  </si>
-  <si>
-    <t>slow transient 2D model available</t>
-  </si>
-  <si>
     <t>tune model to fit disruption behaviour (low current)</t>
   </si>
   <si>
@@ -557,27 +521,18 @@
     <t>non-linear 3D reconstructions available</t>
   </si>
   <si>
-    <t>as-built correction coil geometric data available</t>
-  </si>
-  <si>
     <t>as-built ELM coil data  available</t>
   </si>
   <si>
     <t>ms-elmf</t>
   </si>
   <si>
-    <t>ms-ccf</t>
-  </si>
-  <si>
     <t>cc-coil-map3d</t>
   </si>
   <si>
     <t>elm-coil-map3d</t>
   </si>
   <si>
-    <t>as-built coil cage geometric data available (TFC, PFC, CS)</t>
-  </si>
-  <si>
     <t>ms-coildata</t>
   </si>
   <si>
@@ -599,12 +554,6 @@
     <t xml:space="preserve">full baseline diagnostics inference + TBM </t>
   </si>
   <si>
-    <t xml:space="preserve">update insert geometry from measurements </t>
-  </si>
-  <si>
-    <t xml:space="preserve">update TBM geometry from measurements </t>
-  </si>
-  <si>
     <t>diagnostic feed pre-processing</t>
   </si>
   <si>
@@ -644,9 +593,6 @@
     <t>IC-I</t>
   </si>
   <si>
-    <t>IC-I,wm-2d-cal</t>
-  </si>
-  <si>
     <t>A-II</t>
   </si>
   <si>
@@ -725,39 +671,9 @@
     <t>integrated commissioning</t>
   </si>
   <si>
-    <t>build 3D field maps + check toroidal field symmetry</t>
-  </si>
-  <si>
-    <t>build 3D correction coil field maps + check corrected field symmetry</t>
-  </si>
-  <si>
-    <t>build 3D ELM coil field maps</t>
-  </si>
-  <si>
-    <t>validate / develop 3D field maps</t>
-  </si>
-  <si>
     <t>tfmap-validate</t>
   </si>
   <si>
-    <t>ms-tfmap</t>
-  </si>
-  <si>
-    <t>TF mapping diagnostic data available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELM coils installed </t>
-  </si>
-  <si>
-    <t>ms-elm-install</t>
-  </si>
-  <si>
-    <t>validate / develop 3D field maps including ELM coil operation</t>
-  </si>
-  <si>
-    <t>elm-data</t>
-  </si>
-  <si>
     <t>PFPO-1 diagnostic forward models</t>
   </si>
   <si>
@@ -779,30 +695,15 @@
     <t>perform low current equilibrium reconstructions (online + offline codes)</t>
   </si>
   <si>
-    <t>develop 3D magnet commissioning waveforms (ELM)</t>
-  </si>
-  <si>
-    <t>develop 3D magnet commissioning waveforms (full current)</t>
-  </si>
-  <si>
     <t>wm-wf-shield-3d</t>
   </si>
   <si>
     <t>calculate positions of low-n rational surfaces (synthetic input)</t>
   </si>
   <si>
-    <t>ms-wm-2d-fast-half</t>
-  </si>
-  <si>
     <t>lin-code3d,sta-other</t>
   </si>
   <si>
-    <t>ms-wm-ol-3d,IC-III</t>
-  </si>
-  <si>
-    <t>ms-ferritic-inserts,sta-automatic</t>
-  </si>
-  <si>
     <t>calculate resistive low-n stability (NTMs) including TBMs</t>
   </si>
   <si>
@@ -836,9 +737,6 @@
     <t>adapt in-house 2D free-boundary GS solver to IMAS</t>
   </si>
   <si>
-    <t>establish need for in-house 3D equilibrium generation capability</t>
-  </si>
-  <si>
     <t>develop in-house 3D free-boundary GS solver</t>
   </si>
   <si>
@@ -869,9 +767,6 @@
     <t>nova-3D-GS-verify</t>
   </si>
   <si>
-    <t>nova-3D-GS-need</t>
-  </si>
-  <si>
     <t>benchmark (synthetic mag-only)</t>
   </si>
   <si>
@@ -911,9 +806,6 @@
     <t>magnetics-only inference (vacuum field)</t>
   </si>
   <si>
-    <t>wm-wf,mag-only-bay</t>
-  </si>
-  <si>
     <t>magnetics-only inference (low current)</t>
   </si>
   <si>
@@ -944,16 +836,70 @@
     <t>magnetics-only diagnostics available</t>
   </si>
   <si>
-    <t>fast transient 2D model available (low current)</t>
-  </si>
-  <si>
-    <t>fast transient 2D model available (half current)</t>
-  </si>
-  <si>
-    <t>fast transient 3D model available + shield-blocks (full current)</t>
-  </si>
-  <si>
     <t>kalman filter</t>
+  </si>
+  <si>
+    <t>develop 3D commissioning waveforms (ELM)</t>
+  </si>
+  <si>
+    <t>develop 2D commissioning waveforms</t>
+  </si>
+  <si>
+    <t>develop 3D commissioning waveforms (full current)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tune TBM geometry from field measurements </t>
+  </si>
+  <si>
+    <t>measure open-loop vessel response (TF, PF, CS, VS3)</t>
+  </si>
+  <si>
+    <t>build 3D TFC field maps + check toroidal field symmetry</t>
+  </si>
+  <si>
+    <t>build 3D CC coil field maps + check corrected field symmetry</t>
+  </si>
+  <si>
+    <t>build 3D PF and CS coil field maps</t>
+  </si>
+  <si>
+    <t>PF-map3d</t>
+  </si>
+  <si>
+    <t>as-built coil geometric data available (TFC, PFC, CS, CC)</t>
+  </si>
+  <si>
+    <t>calculate magnetic axis offset from machine axis</t>
+  </si>
+  <si>
+    <t>vf-magaxis</t>
+  </si>
+  <si>
+    <t>fm-bay,sta-automatic</t>
+  </si>
+  <si>
+    <t>wm-ol-3d-fast,IC-III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tune ferritic insert model from vacuum field measurements </t>
+  </si>
+  <si>
+    <t>tune 3D field maps from vacuum field messurments</t>
+  </si>
+  <si>
+    <t>tune 3D ELM coil field maps from vacuum field messurments</t>
+  </si>
+  <si>
+    <t>low current disruption data available</t>
+  </si>
+  <si>
+    <t>full current disruption data available</t>
+  </si>
+  <si>
+    <t>ms-wm-full-current</t>
+  </si>
+  <si>
+    <t>ms-wm-low_current</t>
   </si>
 </sst>
 </file>
@@ -1292,27 +1238,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J162"/>
+  <dimension ref="A1:J155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1342,22 +1288,22 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="C2">
         <f>4*12+3</f>
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
@@ -1365,18 +1311,18 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="C3">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
@@ -1387,7 +1333,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1409,18 +1355,18 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="C5">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
@@ -1431,29 +1377,29 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1464,62 +1410,62 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="C8">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1530,62 +1476,62 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="C11">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1596,40 +1542,40 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="C14">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1640,40 +1586,40 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="C16">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="2" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1684,40 +1630,40 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="C18">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="2" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1728,40 +1674,40 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="C20">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1772,40 +1718,40 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="2" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="2" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1816,64 +1762,64 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="2" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="C26" s="5">
         <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="E26" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="C27" s="5">
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="E27" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="C28" s="6">
         <v>9</v>
@@ -1883,286 +1829,289 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="C29" s="5">
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="C31" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="C32" s="5">
         <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="C34" s="5">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>244</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="5">
         <v>3</v>
       </c>
-      <c r="D34" t="s">
-        <v>281</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
-        <v>271</v>
-      </c>
-      <c r="C35" s="5">
-        <v>18</v>
-      </c>
       <c r="D35" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="F35" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C36" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="F36" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
-        <v>302</v>
-      </c>
-      <c r="C37" s="5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
         <v>0</v>
       </c>
-      <c r="D37" t="s">
-        <v>292</v>
-      </c>
-      <c r="F37" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>11</v>
-      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
+        <v>235</v>
+      </c>
+      <c r="C39" s="6">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s">
+        <v>257</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>247</v>
+      </c>
+      <c r="C40" s="6">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" s="6">
         <v>0</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
-        <v>268</v>
-      </c>
-      <c r="C40" s="6">
-        <v>3</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="D41" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
-        <v>282</v>
-      </c>
-      <c r="C41" s="6">
-        <v>6</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="C42" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="C43" s="6">
         <v>6</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="C44" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="C45" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>194</v>
+        <v>72</v>
       </c>
       <c r="C46" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>56</v>
@@ -2170,625 +2119,620 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c r="C47" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>249</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>303</v>
+        <v>180</v>
       </c>
       <c r="C48" s="6">
         <v>3</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>286</v>
+        <v>30</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>288</v>
+        <v>233</v>
       </c>
       <c r="C49" s="6">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E49" s="2"/>
+        <v>47</v>
+      </c>
       <c r="F49" s="2" t="s">
-        <v>286</v>
+        <v>30</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>304</v>
+        <v>152</v>
       </c>
       <c r="C50" s="6">
         <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>289</v>
+        <v>133</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>287</v>
+        <v>47</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="C51" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="C52" s="6">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>30</v>
+        <v>252</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C53" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>30</v>
+        <v>252</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B54" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="6">
-        <v>0</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>137</v>
-      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
         <v>12</v>
       </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="C56" s="5">
+        <v>3</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C57" s="5">
         <v>6</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E57" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="C58" s="5">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C59" s="5">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="C60" s="5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="C61" s="5">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="5">
         <v>6</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B62" t="s">
-        <v>174</v>
-      </c>
-      <c r="C62" s="5">
-        <v>0</v>
-      </c>
       <c r="D62" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="C63" s="5">
         <v>3</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="C64" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B65" t="s">
-        <v>176</v>
-      </c>
-      <c r="C65" s="5">
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+      <c r="B67" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" s="6">
+        <v>3</v>
+      </c>
       <c r="D67" s="2" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
+      <c r="G67" s="3">
+        <v>44774</v>
+      </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
-      <c r="B68" t="s">
-        <v>198</v>
+      <c r="B68" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C68" s="6">
         <v>3</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E68" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G68" s="7"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="C69" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="7"/>
+      <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C70" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C71" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>69</v>
+        <v>285</v>
       </c>
       <c r="C72" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F72" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>191</v>
+        <v>274</v>
       </c>
       <c r="C73" s="6">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>13</v>
+        <v>90</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C74" s="6">
-        <v>0</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>91</v>
-      </c>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="2"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B75" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C75" s="6">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C75" s="6"/>
       <c r="D75" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>131</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="C76" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G76" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="G76" s="7"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="2"/>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" s="6">
+        <v>3</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
+      <c r="F77" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
-        <v>3</v>
-      </c>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" s="6"/>
+        <v>272</v>
+      </c>
+      <c r="C78" s="6">
+        <v>6</v>
+      </c>
       <c r="D78" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
+      <c r="F78" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C79" s="6">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G79" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="C80" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
-        <v>144</v>
+        <v>271</v>
       </c>
       <c r="C81" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F81" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>147</v>
+        <v>275</v>
       </c>
       <c r="C82" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>295</v>
+        <v>188</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C83" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>39</v>
@@ -2802,1417 +2746,1285 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>164</v>
+        <v>288</v>
       </c>
       <c r="C84" s="6">
         <v>0</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>141</v>
+        <v>291</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C85" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>306</v>
+        <v>139</v>
       </c>
       <c r="C86" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="C87" s="6">
         <v>3</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C88" s="6">
         <v>3</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E88" s="2"/>
+        <v>95</v>
+      </c>
       <c r="F88" s="2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="C89" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>148</v>
+        <v>273</v>
       </c>
       <c r="C90" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>101</v>
+        <v>223</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2" t="s">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="C91" s="6">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>98</v>
+        <v>290</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
-        <v>307</v>
+        <v>155</v>
       </c>
       <c r="C92" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>255</v>
+        <v>138</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C93" s="6">
-        <v>3</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>209</v>
-      </c>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="B94" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C94" s="6">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C94" s="6"/>
       <c r="D94" s="2" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="E94" s="2"/>
-      <c r="F94" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="C95" s="6">
-        <v>9</v>
+        <v>-6</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="C96" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="C97" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A98" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="2"/>
+      <c r="I97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C98" s="6">
+        <v>3</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
+      <c r="F98" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A99" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="I98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C99" s="6"/>
+        <v>277</v>
+      </c>
+      <c r="C99" s="6">
+        <v>6</v>
+      </c>
       <c r="D99" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="E99" s="2"/>
+      <c r="F99" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="C100" s="6">
-        <v>-24</v>
+        <v>3</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
-      <c r="I100" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="C101" s="6">
         <v>3</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>10</v>
+        <v>282</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
-      <c r="I101" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>233</v>
+        <v>165</v>
       </c>
       <c r="C102" s="6">
-        <v>9</v>
+        <v>-6</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
-      <c r="I102" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c r="C103" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>205</v>
+        <v>168</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C104" s="6">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="I103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="2"/>
       <c r="E104" s="2"/>
-      <c r="F104" s="2" t="s">
-        <v>180</v>
-      </c>
+      <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
-      <c r="I104" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A105" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="B105" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C105" s="6">
         <v>0</v>
       </c>
+      <c r="C105" s="6"/>
       <c r="D105" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>236</v>
+        <v>92</v>
       </c>
       <c r="C106" s="6">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2" t="s">
-        <v>238</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H106" s="7"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="C107" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2" t="s">
-        <v>205</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C108" s="6">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2" t="s">
-        <v>179</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
-      <c r="I108" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="C109" s="6">
         <v>0</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C110" s="6">
-        <v>18</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>243</v>
-      </c>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="2"/>
       <c r="E110" s="2"/>
-      <c r="F110" s="2" t="s">
-        <v>241</v>
-      </c>
+      <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A111" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B111" s="2"/>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>176</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C111" s="6"/>
-      <c r="D111" s="2"/>
+      <c r="D111" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
+      <c r="I111" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A112" s="2" t="s">
-        <v>93</v>
-      </c>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C112" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="C112" s="6">
+        <v>9</v>
+      </c>
       <c r="D112" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E112" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
-        <v>94</v>
+        <v>269</v>
       </c>
       <c r="C113" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F113" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="G113" s="2"/>
-      <c r="H113" s="7"/>
+      <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A114" s="2"/>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B114" s="2" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="C114" s="6">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
+      <c r="I114" t="s">
+        <v>17</v>
+      </c>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A115" s="2"/>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B115" s="2" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C115" s="6">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A116" s="2"/>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B116" s="2" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="C116" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="E116" s="2"/>
-      <c r="F116" s="2" t="s">
-        <v>226</v>
+      <c r="F116" t="s">
+        <v>190</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
+      <c r="I116" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A117" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="2"/>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B117" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C117" s="6">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
+      <c r="F117" t="s">
+        <v>171</v>
+      </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>193</v>
-      </c>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C118" s="6"/>
+        <v>132</v>
+      </c>
+      <c r="C118" s="6">
+        <v>12</v>
+      </c>
       <c r="D118" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E118" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
-      <c r="I118" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="I118" s="2"/>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A119" s="2"/>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B119" s="2" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C119" s="6">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F119" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A120" s="2"/>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B120" s="2" t="s">
-        <v>305</v>
+        <v>172</v>
       </c>
       <c r="C120" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="E120" s="2"/>
-      <c r="F120" s="2" t="s">
-        <v>204</v>
+      <c r="F120" t="s">
+        <v>193</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B121" s="2" t="s">
-        <v>294</v>
+        <v>219</v>
       </c>
       <c r="C121" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
-      <c r="I121" t="s">
-        <v>17</v>
-      </c>
+      <c r="I121" s="2"/>
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B122" s="2" t="s">
-        <v>296</v>
+        <v>175</v>
       </c>
       <c r="C122" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F122" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B123" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C123" s="6">
-        <v>6</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>186</v>
-      </c>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-      <c r="F123" t="s">
-        <v>208</v>
-      </c>
+      <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
-      <c r="I123" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="I123" s="2"/>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="B124" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C124" s="6">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C124" s="6"/>
       <c r="D124" s="2" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="E124" s="2"/>
-      <c r="F124" t="s">
-        <v>186</v>
-      </c>
+      <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C125" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F125" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C126" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="2"/>
       <c r="B127" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="C127" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>188</v>
+        <v>104</v>
       </c>
       <c r="E127" s="2"/>
-      <c r="F127" t="s">
-        <v>211</v>
+      <c r="F127" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="2"/>
       <c r="B128" s="2" t="s">
-        <v>247</v>
+        <v>122</v>
       </c>
       <c r="C128" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E128" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="F128" s="2" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C129" s="6">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A130" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="2"/>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C130" s="6">
+        <v>0</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
+      <c r="F130" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A131" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>0</v>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>15</v>
       </c>
       <c r="C131" s="6"/>
-      <c r="D131" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C132" s="6">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>270</v>
+      </c>
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" s="6"/>
       <c r="D132" s="2" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="E132" s="2"/>
-      <c r="F132" s="2" t="s">
-        <v>204</v>
-      </c>
+      <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2" t="s">
-        <v>153</v>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>36</v>
       </c>
       <c r="C133" s="6">
         <v>6</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2" t="s">
-        <v>208</v>
+        <v>60</v>
       </c>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2" t="s">
-        <v>169</v>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>102</v>
       </c>
       <c r="C134" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2" t="s">
-        <v>125</v>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>37</v>
       </c>
       <c r="C135" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>211</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E135" s="2"/>
       <c r="F135" s="2" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2" t="s">
-        <v>154</v>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>34</v>
       </c>
       <c r="C136" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2" t="s">
-        <v>170</v>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>159</v>
       </c>
       <c r="C137" s="6">
         <v>0</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="2"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>15</v>
-      </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="2"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>33</v>
+      </c>
+      <c r="C138" s="6">
+        <v>18</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
+      <c r="F138" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>309</v>
-      </c>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>0</v>
-      </c>
-      <c r="C139" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="C139" s="6">
+        <v>6</v>
+      </c>
       <c r="D139" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
+      <c r="F139" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="C140" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B141" t="s">
-        <v>105</v>
-      </c>
-      <c r="C141" s="6">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>106</v>
-      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" s="6"/>
+      <c r="D141" s="2"/>
       <c r="E141" s="2"/>
-      <c r="F141" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>80</v>
+      </c>
       <c r="B142" t="s">
-        <v>37</v>
-      </c>
-      <c r="C142" s="6">
+        <v>0</v>
+      </c>
+      <c r="D142" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>224</v>
+      </c>
+      <c r="C143" s="5">
+        <v>9</v>
+      </c>
+      <c r="D143" t="s">
+        <v>110</v>
+      </c>
+      <c r="E143" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>108</v>
+      </c>
+      <c r="C144" s="5">
+        <v>3</v>
+      </c>
+      <c r="D144" t="s">
+        <v>111</v>
+      </c>
+      <c r="F144" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>77</v>
+      </c>
+      <c r="C145" s="5">
+        <v>9</v>
+      </c>
+      <c r="D145" t="s">
+        <v>113</v>
+      </c>
+      <c r="F145" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>156</v>
+      </c>
+      <c r="C146" s="5">
+        <v>0</v>
+      </c>
+      <c r="D146" t="s">
+        <v>120</v>
+      </c>
+      <c r="F146" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>81</v>
+      </c>
+      <c r="C147" s="5">
         <v>6</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B143" t="s">
-        <v>34</v>
-      </c>
-      <c r="C143" s="6">
+      <c r="D147" t="s">
+        <v>112</v>
+      </c>
+      <c r="F147" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>83</v>
+      </c>
+      <c r="C148" s="5">
         <v>9</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B144" t="s">
-        <v>171</v>
-      </c>
-      <c r="C144" s="6">
-        <v>0</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B145" t="s">
-        <v>33</v>
-      </c>
-      <c r="C145" s="6">
-        <v>18</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B146" t="s">
-        <v>35</v>
-      </c>
-      <c r="C146" s="6">
+      <c r="D148" t="s">
+        <v>114</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>142</v>
+      </c>
+      <c r="C149" s="5">
+        <v>3</v>
+      </c>
+      <c r="D149" t="s">
+        <v>115</v>
+      </c>
+      <c r="F149" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>79</v>
+      </c>
+      <c r="C150" s="5">
         <v>6</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B147" t="s">
-        <v>172</v>
-      </c>
-      <c r="C147" s="6">
-        <v>0</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>15</v>
-      </c>
-      <c r="C148" s="6"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>80</v>
-      </c>
-      <c r="B149" t="s">
-        <v>0</v>
-      </c>
-      <c r="D149" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B150" t="s">
-        <v>254</v>
-      </c>
-      <c r="C150" s="5">
+      <c r="D150" t="s">
+        <v>116</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>143</v>
+      </c>
+      <c r="C151" s="5">
         <v>9</v>
       </c>
-      <c r="D150" t="s">
-        <v>113</v>
-      </c>
-      <c r="E150" t="s">
-        <v>13</v>
-      </c>
-      <c r="F150" s="2"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B151" t="s">
-        <v>111</v>
-      </c>
-      <c r="C151" s="5">
-        <v>3</v>
-      </c>
       <c r="D151" t="s">
-        <v>114</v>
-      </c>
-      <c r="F151" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C152" s="5">
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>116</v>
-      </c>
-      <c r="F152" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+      <c r="E152" t="s">
+        <v>193</v>
+      </c>
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="C153" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D153" t="s">
-        <v>123</v>
-      </c>
-      <c r="F153" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C154" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>115</v>
-      </c>
-      <c r="F154" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B155" t="s">
-        <v>83</v>
-      </c>
-      <c r="C155" s="5">
-        <v>9</v>
-      </c>
-      <c r="D155" t="s">
-        <v>117</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B156" t="s">
-        <v>151</v>
-      </c>
-      <c r="C156" s="5">
-        <v>3</v>
-      </c>
-      <c r="D156" t="s">
-        <v>118</v>
-      </c>
-      <c r="F156" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B157" t="s">
-        <v>79</v>
-      </c>
-      <c r="C157" s="5">
-        <v>6</v>
-      </c>
-      <c r="D157" t="s">
         <v>119</v>
       </c>
-      <c r="F157" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B158" t="s">
-        <v>152</v>
-      </c>
-      <c r="C158" s="5">
-        <v>9</v>
-      </c>
-      <c r="D158" t="s">
-        <v>120</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B159" t="s">
-        <v>82</v>
-      </c>
-      <c r="C159" s="5">
-        <v>9</v>
-      </c>
-      <c r="D159" t="s">
-        <v>121</v>
-      </c>
-      <c r="E159" t="s">
-        <v>211</v>
-      </c>
-      <c r="F159" s="2"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B160" t="s">
-        <v>259</v>
-      </c>
-      <c r="C160" s="5">
-        <v>6</v>
-      </c>
-      <c r="D160" t="s">
-        <v>260</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B161" t="s">
-        <v>78</v>
-      </c>
-      <c r="C161" s="5">
-        <v>9</v>
-      </c>
-      <c r="D161" t="s">
-        <v>122</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A162" s="2" t="s">
+      <c r="F154" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B162" s="2"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nova/projects/equilibrium/work_plan.xlsx
+++ b/nova/projects/equilibrium/work_plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="284">
   <si>
     <t>task</t>
   </si>
@@ -134,9 +134,6 @@
     <t>implement full state-aware model (plasma+passive, 3D)</t>
   </si>
   <si>
-    <t>develop Kalman filters for plasma (mag-only 2D)</t>
-  </si>
-  <si>
     <t>develop Kalman filters for plasma (full diagnostics 2D)</t>
   </si>
   <si>
@@ -161,15 +158,6 @@
     <t>lin-bm-full</t>
   </si>
   <si>
-    <t>lin-conv</t>
-  </si>
-  <si>
-    <t>lin-code2d</t>
-  </si>
-  <si>
-    <t>lin-code3d</t>
-  </si>
-  <si>
     <t>pkm-mag2d</t>
   </si>
   <si>
@@ -188,21 +176,12 @@
     <t>nlr-param</t>
   </si>
   <si>
-    <t>nlr3d</t>
-  </si>
-  <si>
     <t>wm-3d-eddy</t>
   </si>
   <si>
-    <t>lin-bm-full-real</t>
-  </si>
-  <si>
     <t>nlr2d</t>
   </si>
   <si>
-    <t>transport model</t>
-  </si>
-  <si>
     <t>tm</t>
   </si>
   <si>
@@ -242,18 +221,6 @@
     <t>fm-dipole-tbm</t>
   </si>
   <si>
-    <t>check existing code convergence (mag constraint / shifted grids)</t>
-  </si>
-  <si>
-    <t>develop generic parametrizations (flux functions)</t>
-  </si>
-  <si>
-    <t>commission 2D non-linear reconstruction</t>
-  </si>
-  <si>
-    <t>commission 3D non-linear reconstruction</t>
-  </si>
-  <si>
     <t>F4E</t>
   </si>
   <si>
@@ -299,12 +266,6 @@
     <t>fm-tbm-bay</t>
   </si>
   <si>
-    <t>synthetic diagnostics</t>
-  </si>
-  <si>
-    <t>FP diagnostic forward models</t>
-  </si>
-  <si>
     <t>ms-mag-only</t>
   </si>
   <si>
@@ -326,9 +287,6 @@
     <t>wm-ol-3d</t>
   </si>
   <si>
-    <t>sdiag-FP</t>
-  </si>
-  <si>
     <t>lin-metric</t>
   </si>
   <si>
@@ -401,39 +359,18 @@
     <t>ms-nlr2d</t>
   </si>
   <si>
-    <t>ms-nlr3d</t>
-  </si>
-  <si>
-    <t>sdiag</t>
-  </si>
-  <si>
     <t>diag-wf</t>
   </si>
   <si>
-    <t>pkm</t>
-  </si>
-  <si>
     <t>pekm-3d</t>
   </si>
   <si>
-    <t>ms-sdiag</t>
-  </si>
-  <si>
     <t xml:space="preserve">validate / develop magnet commissioning waveforms </t>
   </si>
   <si>
     <t>develop commissioning waveforms to target TBMs</t>
   </si>
   <si>
-    <t>ms-lin-code3d</t>
-  </si>
-  <si>
-    <t>ms-lin-code-rt2d</t>
-  </si>
-  <si>
-    <t>lin-code2d,sdiag-FP,lin-metric</t>
-  </si>
-  <si>
     <t>lin-bm-initial-kinetic</t>
   </si>
   <si>
@@ -458,33 +395,18 @@
     <t xml:space="preserve">calculate high-n peeling / ballooning stability (ELMs) </t>
   </si>
   <si>
-    <t xml:space="preserve">benchmark 2D equilibrium + 1D transport model </t>
-  </si>
-  <si>
     <t xml:space="preserve">benchmark 3D equilibrium + 1D transport model </t>
   </si>
   <si>
     <t>nlr-opp-2d</t>
   </si>
   <si>
-    <t>nlr-opp-3d</t>
-  </si>
-  <si>
-    <t>refactor non-linear search for real-time (ML model)</t>
-  </si>
-  <si>
     <t>nlr-refactor</t>
   </si>
   <si>
-    <t>full set of synthetic diagnostics available</t>
-  </si>
-  <si>
     <t>re-calibrate diagnostics following TBM installation</t>
   </si>
   <si>
-    <t xml:space="preserve">3D reconstruction codes available on SDCC </t>
-  </si>
-  <si>
     <t>tune model to fit disruption behaviour (low current)</t>
   </si>
   <si>
@@ -515,12 +437,6 @@
     <t>non-linear 2D reconstructions available</t>
   </si>
   <si>
-    <t>couple non-linear search algorithms (optimizers) to 3D code</t>
-  </si>
-  <si>
-    <t>non-linear 3D reconstructions available</t>
-  </si>
-  <si>
     <t>as-built ELM coil data  available</t>
   </si>
   <si>
@@ -557,18 +473,6 @@
     <t>diagnostic feed pre-processing</t>
   </si>
   <si>
-    <t xml:space="preserve">select real-time 2D reconstruction code and make available on SDCC </t>
-  </si>
-  <si>
-    <t>ms-lin-code2d-bm</t>
-  </si>
-  <si>
-    <t>benchmarked real-time codes available on SDCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code refactoring to improve performance and physics fidelity </t>
-  </si>
-  <si>
     <t>extend IMAS data dictionary to represent ferritic structures</t>
   </si>
   <si>
@@ -650,18 +554,6 @@
     <t>SD-V</t>
   </si>
   <si>
-    <t>sdiag-PFPO-2</t>
-  </si>
-  <si>
-    <t>lin-code2d,sdiag-PFPO-1,lin-bm-mag</t>
-  </si>
-  <si>
-    <t>lin-code2d,sdiag-PFPO-2,lin-bm-initial-kinetic</t>
-  </si>
-  <si>
-    <t>sdiag-PFPO-1</t>
-  </si>
-  <si>
     <t>assembly</t>
   </si>
   <si>
@@ -674,12 +566,6 @@
     <t>tfmap-validate</t>
   </si>
   <si>
-    <t>PFPO-1 diagnostic forward models</t>
-  </si>
-  <si>
-    <t>PFPO-2 diagnostic forward models</t>
-  </si>
-  <si>
     <t>(DIP, TIP, TS core r/a&lt;85%) available</t>
   </si>
   <si>
@@ -689,21 +575,12 @@
     <t>fm-dipole-tbm,diag-full-bay</t>
   </si>
   <si>
-    <t>lin_recon</t>
-  </si>
-  <si>
-    <t>perform low current equilibrium reconstructions (online + offline codes)</t>
-  </si>
-  <si>
     <t>wm-wf-shield-3d</t>
   </si>
   <si>
     <t>calculate positions of low-n rational surfaces (synthetic input)</t>
   </si>
   <si>
-    <t>lin-code3d,sta-other</t>
-  </si>
-  <si>
     <t>calculate resistive low-n stability (NTMs) including TBMs</t>
   </si>
   <si>
@@ -725,12 +602,6 @@
     <t>eg</t>
   </si>
   <si>
-    <t>adapt 3D codes to IMAS</t>
-  </si>
-  <si>
-    <t>adapt external 2D codes to IMAS</t>
-  </si>
-  <si>
     <t>develop benchmarks and quality metrics</t>
   </si>
   <si>
@@ -746,9 +617,6 @@
     <t>nova-map</t>
   </si>
   <si>
-    <t>lin-verify</t>
-  </si>
-  <si>
     <t>nova-eddy</t>
   </si>
   <si>
@@ -776,24 +644,12 @@
     <t>benchmark (synthetic full diagnostic baseline)</t>
   </si>
   <si>
-    <t>benchmark (experimental no other tokamaks, full diagnostic baseline)</t>
-  </si>
-  <si>
-    <t>lin-strain</t>
-  </si>
-  <si>
     <t>lin-strain-nova</t>
   </si>
   <si>
-    <t xml:space="preserve">extend in-house code to use vv structural diagnostics </t>
-  </si>
-  <si>
     <t>ms-lin-strain-nova</t>
   </si>
   <si>
-    <t>ms-nova</t>
-  </si>
-  <si>
     <t>ms-nova-trans</t>
   </si>
   <si>
@@ -827,18 +683,12 @@
     <t>3D in-house free-boundary equilibrium solver available</t>
   </si>
   <si>
-    <t>investigate use of non-standard diagnostics (vessel strain and displacement)</t>
-  </si>
-  <si>
     <t xml:space="preserve">separation of plasma and vessel current in advance of kinetic measurements </t>
   </si>
   <si>
     <t>magnetics-only diagnostics available</t>
   </si>
   <si>
-    <t>kalman filter</t>
-  </si>
-  <si>
     <t>develop 3D commissioning waveforms (ELM)</t>
   </si>
   <si>
@@ -900,6 +750,132 @@
   </si>
   <si>
     <t>ms-wm-low_current</t>
+  </si>
+  <si>
+    <t>ms-sdiag-FP</t>
+  </si>
+  <si>
+    <t>ms-sdiag-PFPO-1</t>
+  </si>
+  <si>
+    <t>ms-sdiag-PFPO-2</t>
+  </si>
+  <si>
+    <t>PFPO-2 diagnostic forward models available</t>
+  </si>
+  <si>
+    <t>PFPO-1 diagnostic forward models available</t>
+  </si>
+  <si>
+    <t>FP diagnostic forward models available</t>
+  </si>
+  <si>
+    <t>develop in-house equilibrium reconstruciton using FP synthetic diagnostics</t>
+  </si>
+  <si>
+    <t>lr-nova-fp</t>
+  </si>
+  <si>
+    <t>lr-nova-fp-demo</t>
+  </si>
+  <si>
+    <t>nova-2D-verify</t>
+  </si>
+  <si>
+    <t>ms-nova-2D</t>
+  </si>
+  <si>
+    <t>sdiag-DAN</t>
+  </si>
+  <si>
+    <t>in-house linear equilibrium reconstruction pipeline avalible</t>
+  </si>
+  <si>
+    <t>ms-nova-DAN</t>
+  </si>
+  <si>
+    <t>implement provision of synthetic diagnostics via IO's DAN</t>
+  </si>
+  <si>
+    <t>ms-nova-bm</t>
+  </si>
+  <si>
+    <t>develop in-house equilibrium reconstruciton using PFPO1 synthetic diagnostics</t>
+  </si>
+  <si>
+    <t>lr-nova-pfpo1</t>
+  </si>
+  <si>
+    <t>develop non-linear parametrizations (flux functions - include rotation)</t>
+  </si>
+  <si>
+    <t>refactor non-linear search for low-latency regression (ML model)</t>
+  </si>
+  <si>
+    <t>benchmarked low-latency equilibrium regression pipeline available on SDCC</t>
+  </si>
+  <si>
+    <t>carry out equilibrium reconstructions in support of FP</t>
+  </si>
+  <si>
+    <t>lin-fp-support</t>
+  </si>
+  <si>
+    <t>code improvement and refactoring following lessons learnt from FP opperations</t>
+  </si>
+  <si>
+    <t>demonstrate in-house non-linear equilibrium reconstruction pipeline on SDCC</t>
+  </si>
+  <si>
+    <t>ms-sdiag-PFPO-1,lin-refactor</t>
+  </si>
+  <si>
+    <t>demonstrate FP equilibrium reconstruction pipeline on SDCC using DAN data</t>
+  </si>
+  <si>
+    <t>lr-nova-pfpo1-demo</t>
+  </si>
+  <si>
+    <t>demonstrate PFPO-1 equilibrium reconstruction pipeline on SDCC using DAN data</t>
+  </si>
+  <si>
+    <t>carry out equilibrium reconstructions in support of PFPO-1</t>
+  </si>
+  <si>
+    <t>nlr-pfpo1-support</t>
+  </si>
+  <si>
+    <t>code improvement and refactoring following lessons learnt from PFPO-1 opperations</t>
+  </si>
+  <si>
+    <t>nlin-refactor</t>
+  </si>
+  <si>
+    <t>nlin-refactor,ms-sdiag-PFPO-2</t>
+  </si>
+  <si>
+    <t>demonstrate PFPO-2 equilibrium reconstruction pipeline on SDCC using DAN data</t>
+  </si>
+  <si>
+    <t>develop in-house equilibrium reconstruciton using PFPO-2 synthetic diagnostics</t>
+  </si>
+  <si>
+    <t>lr-nova-pfpo2</t>
+  </si>
+  <si>
+    <t>lr-nova-pfpo2-demo</t>
+  </si>
+  <si>
+    <t>develop Kalman filters for passive structure and plasma (mag-only 2D)</t>
+  </si>
+  <si>
+    <t>causal reconstruction</t>
+  </si>
+  <si>
+    <t>benchmark causal reconstruction and compare with linear snapshot reconstruction</t>
+  </si>
+  <si>
+    <t>extend in-house code to use vv structural diagnostics (vessel strain and displacement)</t>
   </si>
 </sst>
 </file>
@@ -1238,27 +1214,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J155"/>
+  <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1288,22 +1264,22 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="C2">
         <f>4*12+3</f>
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
@@ -1311,18 +1287,18 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="C3">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
@@ -1333,7 +1309,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1355,18 +1331,18 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="C5">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
@@ -1377,29 +1353,29 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1410,62 +1386,62 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="C8">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1476,62 +1452,62 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="C11">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1542,40 +1518,40 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="C14">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1586,40 +1562,40 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="C16">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="2" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1630,40 +1606,40 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="C18">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="2" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1674,40 +1650,40 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="C20">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1718,40 +1694,40 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="2" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="2" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1762,195 +1738,199 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="2" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="C26" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="E26" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="C27" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="E27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>234</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="C28" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" t="s">
-        <v>238</v>
-      </c>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="C29" s="5">
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="F29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="C31" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="C32" s="5">
         <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="C34" s="5">
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="C35" s="5">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F35" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="C36" s="5">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="F36" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1966,179 +1946,180 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>235</v>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="C39" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s">
-        <v>257</v>
-      </c>
-      <c r="G39" s="7"/>
+        <v>243</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>247</v>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="C40" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>179</v>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="C41" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>43</v>
+        <v>249</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>248</v>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="C42" s="6">
         <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>249</v>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="C43" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="C44" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>134</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="G44" s="7"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="C45" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>72</v>
+        <v>262</v>
       </c>
       <c r="C46" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>221</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="C47" s="6">
         <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>180</v>
+        <v>265</v>
       </c>
       <c r="C48" s="6">
         <v>3</v>
@@ -2148,99 +2129,97 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="C49" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="C50" s="6">
         <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>267</v>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="C51" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>133</v>
+        <v>267</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>253</v>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="C52" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="C53" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>254</v>
+        <v>115</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -2254,678 +2233,651 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="6">
+        <v>3</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>280</v>
+      </c>
+      <c r="C57" s="6">
+        <v>3</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C58" s="6">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="6">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="6">
         <v>12</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="6">
         <v>0</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="5">
-        <v>3</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="5">
+      <c r="D62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="6">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="6">
         <v>6</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>148</v>
-      </c>
-      <c r="C58" s="5">
+      <c r="D64" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="6">
         <v>9</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>161</v>
-      </c>
-      <c r="C59" s="5">
-        <v>6</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" s="5">
-        <v>3</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>162</v>
-      </c>
-      <c r="C61" s="5">
+      <c r="D65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="6">
         <v>0</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>163</v>
-      </c>
-      <c r="C62" s="5">
-        <v>6</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="5">
-        <v>3</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>164</v>
-      </c>
-      <c r="C64" s="5">
-        <v>0</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" s="6"/>
       <c r="D66" s="2" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="F66" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="C67" s="6">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>182</v>
+        <v>46</v>
       </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="3">
-        <v>44774</v>
-      </c>
+      <c r="F67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2" t="s">
-        <v>68</v>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>35</v>
       </c>
       <c r="C68" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G68" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2" t="s">
-        <v>26</v>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>134</v>
       </c>
       <c r="C69" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="6">
-        <v>3</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="6">
-        <v>3</v>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C72" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="5">
         <v>3</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E72" s="2"/>
+        <v>48</v>
+      </c>
       <c r="F72" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>260</v>
+      </c>
+      <c r="C73" s="5">
+        <v>3</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>261</v>
+      </c>
+      <c r="C74" s="5">
+        <v>6</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="5">
+        <v>6</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>266</v>
+      </c>
+      <c r="C76" s="5">
+        <v>3</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="5">
+        <v>0</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>271</v>
+      </c>
+      <c r="C78" s="5">
+        <v>18</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>273</v>
+      </c>
+      <c r="C79" s="5">
+        <v>3</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C73" s="6">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C76" s="6">
-        <v>6</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G76" s="7"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C77" s="6">
-        <v>3</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C78" s="6">
-        <v>6</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C79" s="6">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="C80" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="2"/>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B81" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C81" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>278</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="2"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B82" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C82" s="6">
         <v>3</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>22</v>
+        <v>279</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2" t="s">
-        <v>186</v>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>205</v>
       </c>
       <c r="C83" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>22</v>
+        <v>279</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C84" s="6">
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C85" s="6">
-        <v>3</v>
-      </c>
+      <c r="C85" s="6"/>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="E85" s="2"/>
-      <c r="F85" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
-      <c r="B86" s="2" t="s">
-        <v>139</v>
+      <c r="B86" t="s">
+        <v>149</v>
       </c>
       <c r="C86" s="6">
         <v>3</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="E86" s="2"/>
-      <c r="F86" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="3">
+        <v>44774</v>
+      </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="C87" s="6">
         <v>3</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G87" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="G87" s="7"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="C88" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>95</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="C89" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>273</v>
+        <v>62</v>
       </c>
       <c r="C90" s="6">
         <v>3</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>223</v>
+        <v>64</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="2" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="C91" s="6">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>290</v>
+        <v>27</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="C92" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>15</v>
       </c>
@@ -2939,563 +2891,576 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
-      <c r="I94" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
-        <v>280</v>
+        <v>151</v>
       </c>
       <c r="C95" s="6">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G95" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="G95" s="7"/>
       <c r="H95" s="2"/>
-      <c r="I95" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="C96" s="6">
         <v>3</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
-      <c r="I96" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="C97" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
-      <c r="I97" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
-        <v>278</v>
+        <v>152</v>
       </c>
       <c r="C98" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
-      <c r="I98" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
-        <v>277</v>
+        <v>116</v>
       </c>
       <c r="C99" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
-      <c r="I99" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
-        <v>286</v>
+        <v>221</v>
       </c>
       <c r="C100" s="6">
         <v>3</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>215</v>
+        <v>85</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="C101" s="6">
         <v>3</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>282</v>
+        <v>22</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C102" s="6">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="C103" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
-      <c r="I103" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C104" s="6">
+        <v>3</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
+      <c r="F104" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>91</v>
-      </c>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C105" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="C105" s="6">
+        <v>3</v>
+      </c>
       <c r="D105" s="2" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
+      <c r="F105" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="C106" s="6">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F106" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="G106" s="2"/>
-      <c r="H106" s="7"/>
+      <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="C107" s="6">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="C108" s="6">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F108" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="C109" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2" t="s">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="2"/>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C110" s="6">
+        <v>-6</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
+      <c r="F110" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>176</v>
-      </c>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C111" s="6"/>
+        <v>129</v>
+      </c>
+      <c r="C111" s="6">
+        <v>6</v>
+      </c>
       <c r="D111" s="2" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2"/>
+      <c r="F111" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
-      <c r="I111" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="I111" s="2"/>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C112" s="6">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>188</v>
-      </c>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A113" s="2"/>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="B113" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C113" s="6">
         <v>0</v>
       </c>
+      <c r="C113" s="6"/>
       <c r="D113" s="2" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="E113" s="2"/>
-      <c r="F113" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I113" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="C114" s="6">
-        <v>9</v>
+        <v>-6</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" t="s">
-        <v>17</v>
-      </c>
-      <c r="J114" s="2"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="C115" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F115" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
-      <c r="J115" s="2"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C116" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="E116" s="2"/>
-      <c r="F116" t="s">
-        <v>190</v>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
-      <c r="I116" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J116" s="2"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="C117" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>86</v>
+        <v>229</v>
       </c>
       <c r="E117" s="2"/>
-      <c r="F117" t="s">
-        <v>171</v>
+      <c r="F117" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
-        <v>132</v>
+        <v>227</v>
       </c>
       <c r="C118" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F118" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="C119" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="C120" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="E120" s="2"/>
-      <c r="F120" t="s">
-        <v>193</v>
+      <c r="F120" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="C121" s="6">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="C122" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2" t="s">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>15</v>
       </c>
@@ -3509,522 +3474,459 @@
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
-        <v>58</v>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>148</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="2" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
+      <c r="I124" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C125" s="6">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2" t="s">
-        <v>187</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
-        <v>144</v>
+        <v>220</v>
       </c>
       <c r="C126" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A127" s="2"/>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B127" s="2" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="C127" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
+      <c r="I127" t="s">
+        <v>17</v>
+      </c>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A128" s="2"/>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B128" s="2" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="C128" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>61</v>
+        <v>213</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A129" s="2"/>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B129" s="2" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="C129" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="E129" s="2"/>
-      <c r="F129" s="2" t="s">
-        <v>228</v>
+      <c r="F129" t="s">
+        <v>158</v>
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
+      <c r="I129" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A130" s="2"/>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B130" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C130" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="E130" s="2"/>
-      <c r="F130" s="2" t="s">
-        <v>63</v>
+      <c r="F130" t="s">
+        <v>143</v>
       </c>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>15</v>
-      </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C131" s="6">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>270</v>
-      </c>
-      <c r="B132" t="s">
-        <v>0</v>
-      </c>
-      <c r="C132" s="6"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B132" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C132" s="6">
+        <v>9</v>
+      </c>
       <c r="D132" s="2" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
+      <c r="F132" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B133" t="s">
-        <v>36</v>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B133" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="C133" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="E133" s="2"/>
-      <c r="F133" s="2" t="s">
-        <v>60</v>
+      <c r="F133" t="s">
+        <v>161</v>
       </c>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B134" t="s">
-        <v>102</v>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B134" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="C134" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B135" t="s">
-        <v>37</v>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B135" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="C135" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B136" t="s">
-        <v>34</v>
-      </c>
-      <c r="C136" s="6">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>105</v>
-      </c>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="2"/>
       <c r="E136" s="2"/>
-      <c r="F136" s="2" t="s">
-        <v>229</v>
-      </c>
+      <c r="F136" s="2"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B137" t="s">
-        <v>159</v>
-      </c>
-      <c r="C137" s="6">
-        <v>0</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="2"/>
       <c r="E137" s="2"/>
-      <c r="F137" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>69</v>
+      </c>
       <c r="B138" t="s">
-        <v>33</v>
-      </c>
-      <c r="C138" s="6">
-        <v>18</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B139" t="s">
+        <v>184</v>
+      </c>
+      <c r="C139" s="5">
+        <v>9</v>
+      </c>
+      <c r="D139" t="s">
+        <v>96</v>
+      </c>
+      <c r="E139" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B140" t="s">
+        <v>94</v>
+      </c>
+      <c r="C140" s="5">
+        <v>3</v>
+      </c>
+      <c r="D140" t="s">
+        <v>97</v>
+      </c>
+      <c r="F140" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B141" t="s">
+        <v>66</v>
+      </c>
+      <c r="C141" s="5">
+        <v>9</v>
+      </c>
+      <c r="D141" t="s">
+        <v>99</v>
+      </c>
+      <c r="F141" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B142" t="s">
+        <v>130</v>
+      </c>
+      <c r="C142" s="5">
+        <v>0</v>
+      </c>
+      <c r="D142" t="s">
         <v>106</v>
       </c>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B139" t="s">
-        <v>35</v>
-      </c>
-      <c r="C139" s="6">
+      <c r="F142" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B143" t="s">
+        <v>70</v>
+      </c>
+      <c r="C143" s="5">
         <v>6</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B140" t="s">
-        <v>160</v>
-      </c>
-      <c r="C140" s="6">
-        <v>0</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>15</v>
-      </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>80</v>
-      </c>
-      <c r="B142" t="s">
-        <v>0</v>
-      </c>
-      <c r="D142" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B143" t="s">
-        <v>224</v>
-      </c>
-      <c r="C143" s="5">
+      <c r="D143" t="s">
+        <v>98</v>
+      </c>
+      <c r="F143" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B144" t="s">
+        <v>72</v>
+      </c>
+      <c r="C144" s="5">
         <v>9</v>
       </c>
-      <c r="D143" t="s">
-        <v>110</v>
-      </c>
-      <c r="E143" t="s">
-        <v>13</v>
-      </c>
-      <c r="F143" s="2"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B144" t="s">
-        <v>108</v>
-      </c>
-      <c r="C144" s="5">
-        <v>3</v>
-      </c>
       <c r="D144" t="s">
-        <v>111</v>
-      </c>
-      <c r="F144" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="C145" s="5">
+        <v>3</v>
+      </c>
+      <c r="D145" t="s">
+        <v>101</v>
+      </c>
+      <c r="F145" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B146" t="s">
+        <v>68</v>
+      </c>
+      <c r="C146" s="5">
+        <v>6</v>
+      </c>
+      <c r="D146" t="s">
+        <v>102</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B147" t="s">
+        <v>122</v>
+      </c>
+      <c r="C147" s="5">
         <v>9</v>
       </c>
-      <c r="D145" t="s">
-        <v>113</v>
-      </c>
-      <c r="F145" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B146" t="s">
-        <v>156</v>
-      </c>
-      <c r="C146" s="5">
-        <v>0</v>
-      </c>
-      <c r="D146" t="s">
-        <v>120</v>
-      </c>
-      <c r="F146" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B147" t="s">
-        <v>81</v>
-      </c>
-      <c r="C147" s="5">
-        <v>6</v>
-      </c>
       <c r="D147" t="s">
-        <v>112</v>
-      </c>
-      <c r="F147" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C148" s="5">
         <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>114</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="E148" t="s">
+        <v>161</v>
+      </c>
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="C149" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D149" t="s">
-        <v>115</v>
-      </c>
-      <c r="F149" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C150" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B151" t="s">
-        <v>143</v>
-      </c>
-      <c r="C151" s="5">
-        <v>9</v>
-      </c>
-      <c r="D151" t="s">
-        <v>117</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B152" t="s">
-        <v>82</v>
-      </c>
-      <c r="C152" s="5">
-        <v>9</v>
-      </c>
-      <c r="D152" t="s">
-        <v>118</v>
-      </c>
-      <c r="E152" t="s">
-        <v>193</v>
-      </c>
-      <c r="F152" s="2"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B153" t="s">
-        <v>226</v>
-      </c>
-      <c r="C153" s="5">
-        <v>6</v>
-      </c>
-      <c r="D153" t="s">
-        <v>227</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B154" t="s">
-        <v>78</v>
-      </c>
-      <c r="C154" s="5">
-        <v>9</v>
-      </c>
-      <c r="D154" t="s">
-        <v>119</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A155" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A151" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B155" s="2"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nova/projects/equilibrium/work_plan.xlsx
+++ b/nova/projects/equilibrium/work_plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="280">
   <si>
     <t>task</t>
   </si>
@@ -191,9 +191,6 @@
     <t>tm-trans3d</t>
   </si>
   <si>
-    <t>tm-trans2d-forw</t>
-  </si>
-  <si>
     <t>tm-trans3d-forw</t>
   </si>
   <si>
@@ -296,9 +293,6 @@
     <t>pkm-initial-kinetic2d</t>
   </si>
   <si>
-    <t>ms-trans2d</t>
-  </si>
-  <si>
     <t>pkm-2d</t>
   </si>
   <si>
@@ -419,9 +413,6 @@
     <t>baseline low-n stability metrics available</t>
   </si>
   <si>
-    <t>coupled 2D equilibrium + 1D transport model available</t>
-  </si>
-  <si>
     <t>coupled 3D equilibrium + 1D transport model available</t>
   </si>
   <si>
@@ -870,9 +861,6 @@
   </si>
   <si>
     <t>causal reconstruction</t>
-  </si>
-  <si>
-    <t>benchmark causal reconstruction and compare with linear snapshot reconstruction</t>
   </si>
   <si>
     <t>extend in-house code to use vv structural diagnostics (vessel strain and displacement)</t>
@@ -1214,11 +1202,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J151"/>
+  <dimension ref="A1:J149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1269,17 +1257,17 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C2">
         <f>4*12+3</f>
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
@@ -1292,13 +1280,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C3">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
@@ -1336,13 +1324,13 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C5">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
@@ -1358,17 +1346,17 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1386,11 +1374,11 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1402,17 +1390,17 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C8">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1424,17 +1412,17 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1452,11 +1440,11 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1468,17 +1456,17 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C11">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1490,17 +1478,17 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1518,11 +1506,11 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1534,17 +1522,17 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C14">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1562,11 +1550,11 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1578,17 +1566,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C16">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1606,11 +1594,11 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1622,17 +1610,17 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C18">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1650,11 +1638,11 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1666,17 +1654,17 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C20">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1694,11 +1682,11 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1710,17 +1698,17 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1738,11 +1726,11 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1756,56 +1744,56 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C26" s="5">
         <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C27" s="5">
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1815,114 +1803,114 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C29" s="5">
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C31" s="5">
         <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C32" s="5">
         <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C34" s="5">
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
         <v>199</v>
       </c>
-      <c r="C35" s="5">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>202</v>
-      </c>
       <c r="F35" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C36" s="5">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F36" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -1949,16 +1937,16 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -1969,17 +1957,17 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C40" s="6">
         <v>6</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1989,17 +1977,17 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C41" s="6">
         <v>3</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -2009,17 +1997,17 @@
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C42" s="6">
         <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -2029,17 +2017,17 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C43" s="6">
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -2048,24 +2036,24 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C44" s="6">
         <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C45" s="6">
         <v>5</v>
@@ -2075,23 +2063,23 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
@@ -2102,24 +2090,24 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C47" s="6">
         <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C48" s="6">
         <v>3</v>
@@ -2129,92 +2117,92 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C49" s="6">
         <v>6</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C50" s="6">
         <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C51" s="6">
         <v>6</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B52" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C52" s="6">
         <v>3</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C53" s="6">
         <v>3</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -2235,7 +2223,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>0</v>
@@ -2254,7 +2242,7 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C56" s="6">
         <v>3</v>
@@ -2264,7 +2252,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -2273,7 +2261,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C57" s="6">
         <v>3</v>
@@ -2293,17 +2281,19 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>282</v>
+        <v>106</v>
       </c>
       <c r="C58" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E58" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="F58" s="2" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -2313,17 +2303,17 @@
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C59" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -2333,19 +2323,17 @@
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C60" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>161</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -2353,19 +2341,18 @@
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2" t="s">
-        <v>123</v>
+      <c r="B61" t="s">
+        <v>87</v>
       </c>
       <c r="C61" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>187</v>
+        <v>44</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -2373,19 +2360,18 @@
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2" t="s">
-        <v>132</v>
+      <c r="B62" t="s">
+        <v>36</v>
       </c>
       <c r="C62" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -2394,7 +2380,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="C63" s="6">
         <v>9</v>
@@ -2404,22 +2390,20 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="C64" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
@@ -2427,332 +2411,336 @@
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C65" s="6">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="C66" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="C67" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C68" s="6">
-        <v>6</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
       <c r="B69" t="s">
-        <v>134</v>
-      </c>
-      <c r="C69" s="6">
         <v>0</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+        <v>47</v>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>15</v>
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="5">
+        <v>3</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>12</v>
-      </c>
       <c r="B71" t="s">
-        <v>0</v>
+        <v>257</v>
+      </c>
+      <c r="C71" s="5">
+        <v>3</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
-        <v>57</v>
+        <v>258</v>
       </c>
       <c r="C72" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>257</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
-        <v>260</v>
+        <v>132</v>
       </c>
       <c r="C73" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C74" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C75" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C76" s="5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>51</v>
+        <v>269</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
-        <v>136</v>
+        <v>270</v>
       </c>
       <c r="C77" s="5">
+        <v>3</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C78" s="6">
         <v>0</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B78" t="s">
-        <v>271</v>
-      </c>
-      <c r="C78" s="5">
-        <v>18</v>
-      </c>
       <c r="D78" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>158</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B79" t="s">
-        <v>273</v>
-      </c>
-      <c r="C79" s="5">
-        <v>3</v>
+      <c r="B79" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C79" s="6">
+        <v>6</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>274</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
         <v>272</v>
       </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="C80" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F80" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="2" t="s">
-        <v>277</v>
+      <c r="B81" t="s">
+        <v>202</v>
       </c>
       <c r="C81" s="6">
         <v>6</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>278</v>
+        <v>43</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B82" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C82" s="6">
-        <v>3</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B83" t="s">
-        <v>205</v>
-      </c>
-      <c r="C83" s="6">
-        <v>6</v>
-      </c>
+      <c r="A83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="6"/>
       <c r="D83" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E83" s="2"/>
-      <c r="F83" s="2" t="s">
-        <v>279</v>
-      </c>
+      <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>15</v>
-      </c>
+      <c r="A84" s="2"/>
+      <c r="B84" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" s="6">
+        <v>3</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="3">
+        <v>44774</v>
+      </c>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="C85" s="6">
+        <v>3</v>
+      </c>
       <c r="D85" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
+      <c r="F85" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G85" s="7"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
-      <c r="B86" t="s">
-        <v>149</v>
+      <c r="B86" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C86" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="3">
-        <v>44774</v>
-      </c>
+      <c r="F86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
@@ -2760,19 +2748,19 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C87" s="6">
         <v>3</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G87" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
@@ -2780,17 +2768,17 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C88" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -2800,17 +2788,17 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
-        <v>78</v>
+        <v>232</v>
       </c>
       <c r="C89" s="6">
         <v>3</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -2820,17 +2808,17 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c r="C90" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -2838,72 +2826,72 @@
       <c r="J90" s="2"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C91" s="6">
-        <v>3</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="2"/>
       <c r="E91" s="2"/>
-      <c r="F91" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
+      <c r="A92" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B92" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C92" s="6">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C92" s="6"/>
       <c r="D92" s="2" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="E92" s="2"/>
-      <c r="F92" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="2"/>
+      <c r="A93" s="2"/>
+      <c r="B93" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C93" s="6">
+        <v>6</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
+      <c r="F93" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G93" s="7"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A94" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C94" s="6"/>
+        <v>150</v>
+      </c>
+      <c r="C94" s="6">
+        <v>3</v>
+      </c>
       <c r="D94" s="2" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
+      <c r="F94" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -2912,19 +2900,19 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="C95" s="6">
         <v>6</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G95" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
@@ -2932,17 +2920,17 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C96" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -2952,17 +2940,17 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="C97" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -2972,17 +2960,17 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="C98" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -2992,17 +2980,17 @@
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="C99" s="6">
         <v>3</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -3012,17 +3000,17 @@
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="C100" s="6">
         <v>3</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
@@ -3032,17 +3020,17 @@
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C101" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
@@ -3052,17 +3040,17 @@
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="C102" s="6">
         <v>3</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -3072,17 +3060,17 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="C103" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>241</v>
+        <v>85</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
@@ -3092,17 +3080,17 @@
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C104" s="6">
         <v>3</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
@@ -3118,11 +3106,10 @@
         <v>3</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E105" s="2"/>
+        <v>81</v>
+      </c>
       <c r="F105" s="2" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
@@ -3132,17 +3119,17 @@
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C106" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -3152,16 +3139,17 @@
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="C107" s="6">
         <v>3</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E107" s="2"/>
       <c r="F107" s="2" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
@@ -3171,17 +3159,17 @@
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>119</v>
+        <v>236</v>
       </c>
       <c r="C108" s="6">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>84</v>
+        <v>237</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
@@ -3191,17 +3179,17 @@
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
-        <v>223</v>
+        <v>127</v>
       </c>
       <c r="C109" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
@@ -3209,112 +3197,114 @@
       <c r="J109" s="2"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C110" s="6">
-        <v>-6</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>240</v>
-      </c>
+      <c r="A110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="2"/>
       <c r="E110" s="2"/>
-      <c r="F110" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A111" s="2"/>
+      <c r="A111" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="B111" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C111" s="6">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C111" s="6"/>
       <c r="D111" s="2" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="E111" s="2"/>
-      <c r="F111" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
+      <c r="I111" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A112" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="2"/>
+      <c r="A112" s="2"/>
+      <c r="B112" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C112" s="6">
+        <v>-6</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
+      <c r="F112" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
+      <c r="I112" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A113" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C113" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="C113" s="6">
+        <v>3</v>
+      </c>
       <c r="D113" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E113" s="2"/>
+      <c r="F113" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C114" s="6">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
-        <v>9</v>
+        <v>225</v>
       </c>
       <c r="C115" s="6">
         <v>3</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -3325,17 +3315,17 @@
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C116" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
@@ -3346,59 +3336,53 @@
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C117" s="6">
         <v>3</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
-      <c r="I117" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C118" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
-      <c r="I118" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
-        <v>236</v>
+        <v>134</v>
       </c>
       <c r="C119" s="6">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
@@ -3406,68 +3390,71 @@
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C120" s="6">
         <v>3</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>232</v>
+        <v>137</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
+      <c r="I120" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C121" s="6">
-        <v>-6</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="A121" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="2"/>
       <c r="E121" s="2"/>
-      <c r="F121" s="2" t="s">
-        <v>158</v>
-      </c>
+      <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A122" s="2"/>
+      <c r="A122" t="s">
+        <v>145</v>
+      </c>
       <c r="B122" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C122" s="6">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C122" s="6"/>
       <c r="D122" s="2" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="E122" s="2"/>
-      <c r="F122" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
-      <c r="I122" t="s">
-        <v>17</v>
-      </c>
+      <c r="I122" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J122" s="2"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A123" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
+      <c r="A123" s="2"/>
+      <c r="B123" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C123" s="6">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -3475,127 +3462,127 @@
       <c r="J123" s="2"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>148</v>
-      </c>
+      <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C124" s="6">
         <v>0</v>
       </c>
-      <c r="C124" s="6"/>
       <c r="D124" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="E124" s="2"/>
+      <c r="F124" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
-      <c r="I124" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="I124" s="2"/>
       <c r="J124" s="2"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
-        <v>113</v>
+        <v>208</v>
       </c>
       <c r="C125" s="6">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F125" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
+      <c r="I125" t="s">
+        <v>17</v>
+      </c>
       <c r="J125" s="2"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C126" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2" t="s">
-        <v>155</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
       <c r="J126" s="2"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B127" s="2" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="C127" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="E127" s="2"/>
-      <c r="F127" s="2" t="s">
-        <v>111</v>
+      <c r="F127" t="s">
+        <v>155</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
-      <c r="I127" t="s">
-        <v>17</v>
+      <c r="I127" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J127" s="2"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B128" s="2" t="s">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="C128" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F128" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" t="s">
+        <v>140</v>
+      </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="C129" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129" t="s">
-        <v>158</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
-      <c r="I129" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="I129" s="2"/>
       <c r="J129" s="2"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B130" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C130" s="6">
         <v>9</v>
@@ -3604,8 +3591,8 @@
         <v>75</v>
       </c>
       <c r="E130" s="2"/>
-      <c r="F130" t="s">
-        <v>143</v>
+      <c r="F130" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
@@ -3613,20 +3600,19 @@
       <c r="J130" s="2"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A131" s="2"/>
       <c r="B131" s="2" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C131" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F131" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" t="s">
+        <v>158</v>
+      </c>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
@@ -3634,17 +3620,17 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B132" s="2" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="C132" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
@@ -3656,14 +3642,14 @@
         <v>144</v>
       </c>
       <c r="C133" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="E133" s="2"/>
-      <c r="F133" t="s">
-        <v>161</v>
+      <c r="F133" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
@@ -3671,262 +3657,224 @@
       <c r="J133" s="2"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B134" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C134" s="6">
-        <v>6</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A134" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B135" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C135" s="6">
-        <v>5</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="A135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="2"/>
       <c r="E135" s="2"/>
-      <c r="F135" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A136" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B136" s="2"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
+      <c r="A136" t="s">
+        <v>68</v>
+      </c>
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>15</v>
-      </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
+      <c r="B137" t="s">
+        <v>181</v>
+      </c>
+      <c r="C137" s="5">
+        <v>9</v>
+      </c>
+      <c r="D137" t="s">
+        <v>94</v>
+      </c>
+      <c r="E137" t="s">
+        <v>13</v>
+      </c>
       <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>69</v>
-      </c>
       <c r="B138" t="s">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="C138" s="5">
+        <v>3</v>
       </c>
       <c r="D138" t="s">
         <v>95</v>
       </c>
+      <c r="F138" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="C139" s="5">
         <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>96</v>
-      </c>
-      <c r="E139" t="s">
-        <v>13</v>
-      </c>
-      <c r="F139" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="F139" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C140" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D140" t="s">
+        <v>104</v>
+      </c>
+      <c r="F140" t="s">
         <v>97</v>
-      </c>
-      <c r="F140" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C141" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F141" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="C142" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>106</v>
-      </c>
-      <c r="F142" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="C143" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D143" t="s">
+        <v>99</v>
+      </c>
+      <c r="F143" t="s">
         <v>98</v>
-      </c>
-      <c r="F143" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C144" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D144" t="s">
         <v>100</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C145" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
         <v>101</v>
       </c>
-      <c r="F145" t="s">
-        <v>100</v>
+      <c r="F145" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C146" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
         <v>102</v>
       </c>
-      <c r="F146" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="E146" t="s">
+        <v>158</v>
+      </c>
+      <c r="F146" s="2"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="C147" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D147" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>142</v>
+        <v>231</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C148" s="5">
         <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>104</v>
-      </c>
-      <c r="E148" t="s">
-        <v>161</v>
-      </c>
-      <c r="F148" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B149" t="s">
-        <v>185</v>
-      </c>
-      <c r="C149" s="5">
-        <v>6</v>
-      </c>
-      <c r="D149" t="s">
-        <v>186</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B150" t="s">
-        <v>67</v>
-      </c>
-      <c r="C150" s="5">
-        <v>9</v>
-      </c>
-      <c r="D150" t="s">
-        <v>105</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A151" s="2" t="s">
+      <c r="A149" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B151" s="2"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
-      <c r="J151" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nova/projects/equilibrium/work_plan.xlsx
+++ b/nova/projects/equilibrium/work_plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="279">
   <si>
     <t>task</t>
   </si>
@@ -579,9 +579,6 @@
   </si>
   <si>
     <t>tm-trans3d,PFPO-1,IC-III</t>
-  </si>
-  <si>
-    <t>pkm-full2d,ms-trans2d</t>
   </si>
   <si>
     <t>tm-trans3d-forw,pekm-full3d</t>
@@ -1205,24 +1202,24 @@
   <dimension ref="A1:J149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1252,7 +1249,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1275,7 +1272,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1297,7 +1294,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1319,7 +1316,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1341,7 +1338,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1363,7 +1360,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1385,7 +1382,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1407,7 +1404,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1429,7 +1426,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1451,7 +1448,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1473,7 +1470,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1495,7 +1492,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1517,7 +1514,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1539,7 +1536,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1561,7 +1558,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1583,7 +1580,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1605,7 +1602,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1627,7 +1624,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1649,7 +1646,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1671,7 +1668,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1693,7 +1690,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1715,7 +1712,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1737,60 +1734,60 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C26" s="5">
         <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C27" s="5">
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E27" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>152</v>
@@ -1801,124 +1798,124 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C29" s="5">
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C31" s="5">
         <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="5">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>213</v>
-      </c>
-      <c r="C32" s="5">
-        <v>3</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>214</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C34" s="5">
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" t="s">
         <v>196</v>
       </c>
-      <c r="C35" s="5">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>199</v>
-      </c>
-      <c r="F35" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C36" s="5">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F36" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1934,16 +1931,16 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>154</v>
@@ -1954,89 +1951,89 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C40" s="6">
         <v>6</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="6">
         <v>3</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C42" s="6">
         <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C43" s="6">
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C44" s="6">
         <v>3</v>
@@ -2046,14 +2043,14 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C45" s="6">
         <v>5</v>
@@ -2071,15 +2068,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
@@ -2088,15 +2085,15 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C47" s="6">
         <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
@@ -2105,9 +2102,9 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C48" s="6">
         <v>3</v>
@@ -2117,20 +2114,20 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C49" s="6">
         <v>6</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
@@ -2139,60 +2136,60 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C50" s="6">
         <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C51" s="6">
         <v>6</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C52" s="6">
         <v>3</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C53" s="6">
         <v>3</v>
@@ -2202,12 +2199,12 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -2221,9 +2218,9 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>0</v>
@@ -2239,7 +2236,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
         <v>105</v>
@@ -2252,16 +2249,16 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C57" s="6">
         <v>3</v>
@@ -2278,7 +2275,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
         <v>106</v>
@@ -2300,7 +2297,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
         <v>121</v>
@@ -2320,7 +2317,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
         <v>129</v>
@@ -2340,7 +2337,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>87</v>
       </c>
@@ -2359,7 +2356,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>36</v>
       </c>
@@ -2378,7 +2375,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>34</v>
       </c>
@@ -2390,12 +2387,12 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>130</v>
       </c>
@@ -2412,7 +2409,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>33</v>
       </c>
@@ -2429,7 +2426,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>35</v>
       </c>
@@ -2441,12 +2438,12 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>131</v>
       </c>
@@ -2463,12 +2460,12 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -2479,7 +2476,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>56</v>
       </c>
@@ -2490,12 +2487,12 @@
         <v>48</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C71" s="5">
         <v>3</v>
@@ -2507,9 +2504,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C72" s="5">
         <v>6</v>
@@ -2521,7 +2518,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>132</v>
       </c>
@@ -2535,9 +2532,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C74" s="5">
         <v>3</v>
@@ -2549,7 +2546,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>133</v>
       </c>
@@ -2563,44 +2560,44 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C76" s="5">
         <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
+        <v>269</v>
+      </c>
+      <c r="C77" s="5">
+        <v>3</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C77" s="5">
-        <v>3</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C78" s="6">
         <v>0</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>157</v>
@@ -2611,43 +2608,43 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C79" s="6">
         <v>6</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C80" s="6">
         <v>3</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C81" s="6">
         <v>6</v>
@@ -2657,17 +2654,17 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>20</v>
       </c>
@@ -2685,7 +2682,7 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" t="s">
         <v>146</v>
@@ -2705,7 +2702,7 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
         <v>60</v>
@@ -2725,7 +2722,7 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
         <v>26</v>
@@ -2745,7 +2742,7 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
         <v>77</v>
@@ -2765,7 +2762,7 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
         <v>61</v>
@@ -2785,10 +2782,10 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C89" s="6">
         <v>3</v>
@@ -2805,10 +2802,10 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C90" s="6">
         <v>9</v>
@@ -2825,7 +2822,7 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>15</v>
       </c>
@@ -2839,7 +2836,7 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>3</v>
       </c>
@@ -2857,7 +2854,7 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
         <v>148</v>
@@ -2877,7 +2874,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
         <v>150</v>
@@ -2897,10 +2894,10 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C95" s="6">
         <v>6</v>
@@ -2917,7 +2914,7 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
         <v>149</v>
@@ -2937,7 +2934,7 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
         <v>114</v>
@@ -2957,10 +2954,10 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C98" s="6">
         <v>3</v>
@@ -2977,10 +2974,10 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C99" s="6">
         <v>3</v>
@@ -2997,7 +2994,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
         <v>151</v>
@@ -3017,16 +3014,16 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C101" s="6">
         <v>0</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
@@ -3037,7 +3034,7 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
         <v>125</v>
@@ -3057,7 +3054,7 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
         <v>116</v>
@@ -3077,7 +3074,7 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
         <v>126</v>
@@ -3097,7 +3094,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
         <v>118</v>
@@ -3116,7 +3113,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
         <v>117</v>
@@ -3136,10 +3133,10 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C107" s="6">
         <v>3</v>
@@ -3156,16 +3153,16 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C108" s="6">
         <v>-6</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
@@ -3176,7 +3173,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
         <v>127</v>
@@ -3196,7 +3193,7 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>15</v>
       </c>
@@ -3210,7 +3207,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>57</v>
       </c>
@@ -3228,10 +3225,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C112" s="6">
         <v>-6</v>
@@ -3249,7 +3246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
         <v>9</v>
@@ -3270,10 +3267,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C114" s="6">
         <v>3</v>
@@ -3291,16 +3288,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C115" s="6">
+        <v>3</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="C115" s="6">
-        <v>3</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
@@ -3312,10 +3309,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C116" s="6">
         <v>6</v>
@@ -3325,7 +3322,7 @@
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
@@ -3333,10 +3330,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C117" s="6">
         <v>3</v>
@@ -3351,16 +3348,16 @@
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C118" s="6">
+        <v>3</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="C118" s="6">
-        <v>3</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
@@ -3369,7 +3366,7 @@
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
         <v>134</v>
@@ -3387,10 +3384,10 @@
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C120" s="6">
         <v>3</v>
@@ -3408,7 +3405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>15</v>
       </c>
@@ -3422,7 +3419,7 @@
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>145</v>
       </c>
@@ -3441,7 +3438,7 @@
       </c>
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2" t="s">
         <v>111</v>
@@ -3461,10 +3458,10 @@
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C124" s="6">
         <v>0</v>
@@ -3481,9 +3478,9 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B125" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C125" s="6">
         <v>9</v>
@@ -3502,15 +3499,15 @@
       </c>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B126" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C126" s="6">
         <v>6</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>154</v>
@@ -3520,7 +3517,7 @@
       <c r="H126" s="2"/>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B127" s="2" t="s">
         <v>177</v>
       </c>
@@ -3541,7 +3538,7 @@
       </c>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B128" s="2" t="s">
         <v>143</v>
       </c>
@@ -3560,7 +3557,7 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
         <v>112</v>
@@ -3580,7 +3577,7 @@
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B130" s="2" t="s">
         <v>124</v>
       </c>
@@ -3599,7 +3596,7 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B131" s="2" t="s">
         <v>141</v>
       </c>
@@ -3618,7 +3615,7 @@
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B132" s="2" t="s">
         <v>178</v>
       </c>
@@ -3637,7 +3634,7 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B133" s="2" t="s">
         <v>144</v>
       </c>
@@ -3656,7 +3653,7 @@
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>15</v>
       </c>
@@ -3670,7 +3667,7 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>15</v>
       </c>
@@ -3681,7 +3678,7 @@
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>68</v>
       </c>
@@ -3692,7 +3689,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>181</v>
       </c>
@@ -3707,7 +3704,7 @@
       </c>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>92</v>
       </c>
@@ -3721,7 +3718,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>65</v>
       </c>
@@ -3735,7 +3732,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>128</v>
       </c>
@@ -3749,7 +3746,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>69</v>
       </c>
@@ -3763,7 +3760,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>71</v>
       </c>
@@ -3774,10 +3771,10 @@
         <v>98</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>119</v>
       </c>
@@ -3791,7 +3788,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>67</v>
       </c>
@@ -3805,7 +3802,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>120</v>
       </c>
@@ -3819,7 +3816,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>70</v>
       </c>
@@ -3834,7 +3831,7 @@
       </c>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>182</v>
       </c>
@@ -3845,10 +3842,10 @@
         <v>183</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>66</v>
       </c>
@@ -3862,7 +3859,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>15</v>
       </c>

--- a/nova/projects/equilibrium/work_plan.xlsx
+++ b/nova/projects/equilibrium/work_plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="281">
   <si>
     <t>task</t>
   </si>
@@ -89,9 +89,6 @@
     <t>ferritic model</t>
   </si>
   <si>
-    <t>diag</t>
-  </si>
-  <si>
     <t>wm-ol</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>nlr2d</t>
   </si>
   <si>
-    <t>tm</t>
-  </si>
-  <si>
     <t>tm-trans2d</t>
   </si>
   <si>
@@ -461,9 +455,6 @@
     <t xml:space="preserve">full baseline diagnostics inference + TBM </t>
   </si>
   <si>
-    <t>diagnostic feed pre-processing</t>
-  </si>
-  <si>
     <t>extend IMAS data dictionary to represent ferritic structures</t>
   </si>
   <si>
@@ -581,9 +572,6 @@
     <t>tm-trans3d,PFPO-1,IC-III</t>
   </si>
   <si>
-    <t>pkm-full2d,ms-trans2d</t>
-  </si>
-  <si>
     <t>tm-trans3d-forw,pekm-full3d</t>
   </si>
   <si>
@@ -864,6 +852,21 @@
   </si>
   <si>
     <t>extend in-house code to use vv structural diagnostics (vessel strain and displacement)</t>
+  </si>
+  <si>
+    <t>dynamic model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diagnostic data </t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>dm</t>
   </si>
 </sst>
 </file>
@@ -1202,11 +1205,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J149"/>
+  <dimension ref="A1:J150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1257,17 +1260,17 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C2">
         <f>4*12+3</f>
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
@@ -1280,13 +1283,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C3">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
@@ -1324,13 +1327,13 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C5">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
@@ -1346,17 +1349,17 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1374,11 +1377,11 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1390,17 +1393,17 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C8">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1412,17 +1415,17 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1440,11 +1443,11 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1456,17 +1459,17 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C11">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1478,17 +1481,17 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1506,11 +1509,11 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1522,17 +1525,17 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C14">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1550,11 +1553,11 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1566,17 +1569,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C16">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1594,11 +1597,11 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1610,17 +1613,17 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C18">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1638,11 +1641,11 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1654,17 +1657,17 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C20">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1682,11 +1685,11 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1698,17 +1701,17 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1726,11 +1729,11 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1744,56 +1747,56 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C26" s="5">
         <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E26" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C27" s="5">
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1803,152 +1806,170 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C29" s="5">
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="C31" s="5">
-        <v>6</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>194</v>
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>193</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="C32" s="5">
         <v>3</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>194</v>
+      <c r="D32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>198</v>
+      <c r="D33" t="s">
+        <v>202</v>
+      </c>
+      <c r="F33" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>191</v>
-      </c>
-      <c r="C34" s="5">
-        <v>12</v>
-      </c>
-      <c r="D34" t="s">
-        <v>197</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>113</v>
+      <c r="A34" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
       <c r="B35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C35" s="5">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>199</v>
-      </c>
-      <c r="F35" t="s">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
-        <v>215</v>
-      </c>
-      <c r="C36" s="5">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" s="6">
         <v>0</v>
       </c>
-      <c r="D36" t="s">
-        <v>206</v>
-      </c>
-      <c r="F36" t="s">
-        <v>199</v>
-      </c>
+      <c r="D36" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C37" s="6">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="6"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38" s="6">
+        <v>3</v>
+      </c>
       <c r="D38" s="2" t="s">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C39" s="6">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C39" s="6">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -1957,17 +1978,17 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C40" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1975,770 +1996,773 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
-        <v>253</v>
+      <c r="B41" t="s">
+        <v>185</v>
       </c>
       <c r="C41" s="6">
         <v>3</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G41" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="G41" s="7"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
-        <v>265</v>
+      <c r="B42" t="s">
+        <v>196</v>
       </c>
       <c r="C42" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>247</v>
+        <v>41</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
+      <c r="I42" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2" t="s">
-        <v>251</v>
+      <c r="B43" t="s">
+        <v>255</v>
       </c>
       <c r="C43" s="6">
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>247</v>
+        <v>41</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>189</v>
+        <v>256</v>
       </c>
       <c r="C44" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>257</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G44" s="7"/>
+        <v>150</v>
+      </c>
+      <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="C45" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>86</v>
+        <v>257</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="I45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C46" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="C47" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B48" t="s">
-        <v>262</v>
+      <c r="B48" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="C48" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>30</v>
+        <v>252</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" t="s">
-        <v>279</v>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="C49" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>108</v>
+        <v>252</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="C50" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C51" s="6">
-        <v>6</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>256</v>
-      </c>
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="2" t="s">
-        <v>264</v>
-      </c>
+      <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C52" s="6">
-        <v>3</v>
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>201</v>
-      </c>
-      <c r="C53" s="6">
+        <v>54</v>
+      </c>
+      <c r="C53" s="5">
         <v>3</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="2"/>
+        <v>47</v>
+      </c>
       <c r="F53" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+        <v>250</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
+      <c r="B54" t="s">
+        <v>253</v>
+      </c>
+      <c r="C54" s="5">
+        <v>3</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="6"/>
+      <c r="B55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C55" s="5">
+        <v>6</v>
+      </c>
       <c r="D55" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="6">
-        <v>3</v>
+      <c r="B56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="5">
+        <v>6</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E56" s="2"/>
+        <v>120</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
+        <v>121</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>277</v>
-      </c>
-      <c r="C57" s="6">
+        <v>259</v>
+      </c>
+      <c r="C57" s="5">
         <v>3</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" s="2"/>
+        <v>50</v>
+      </c>
       <c r="F57" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
+        <v>120</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="6">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" s="6">
-        <v>12</v>
+      <c r="B59" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="5">
+        <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E59" s="2"/>
+        <v>265</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
+        <v>152</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" s="6">
+      <c r="B60" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="5">
+        <v>3</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" s="6">
         <v>0</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B61" t="s">
-        <v>87</v>
-      </c>
-      <c r="C61" s="6">
-        <v>9</v>
-      </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B62" t="s">
-        <v>36</v>
+      <c r="B62" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="C62" s="6">
         <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>88</v>
+        <v>268</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B63" t="s">
-        <v>34</v>
+      <c r="B63" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="C63" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>272</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="C64" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>89</v>
+        <v>272</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B65" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" s="6">
-        <v>18</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>276</v>
+      </c>
       <c r="B66" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66" s="6">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C66" s="6"/>
       <c r="D66" s="2" t="s">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="E66" s="2"/>
-      <c r="F66" s="2" t="s">
-        <v>186</v>
-      </c>
+      <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" s="6">
+        <v>208</v>
+      </c>
+      <c r="C67" s="5">
+        <v>6</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" s="5">
+        <v>3</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" s="5">
         <v>0</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="D69" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="6">
+        <v>3</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s">
+        <v>188</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="6">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" s="6">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="6">
+        <v>0</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C74" s="6"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>277</v>
+      </c>
+      <c r="B75" t="s">
         <v>0</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B70" t="s">
-        <v>56</v>
-      </c>
-      <c r="C70" s="5">
-        <v>3</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B71" t="s">
-        <v>257</v>
-      </c>
-      <c r="C71" s="5">
-        <v>3</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B72" t="s">
-        <v>258</v>
-      </c>
-      <c r="C72" s="5">
-        <v>6</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B73" t="s">
-        <v>132</v>
-      </c>
-      <c r="C73" s="5">
-        <v>6</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B74" t="s">
-        <v>263</v>
-      </c>
-      <c r="C74" s="5">
-        <v>3</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B75" t="s">
-        <v>133</v>
-      </c>
-      <c r="C75" s="5">
+      <c r="C75" s="6"/>
+      <c r="D75" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" s="6">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C77" s="6">
         <v>0</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B76" t="s">
-        <v>268</v>
-      </c>
-      <c r="C76" s="5">
-        <v>18</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B77" t="s">
-        <v>270</v>
-      </c>
-      <c r="C77" s="5">
-        <v>3</v>
-      </c>
       <c r="D77" s="2" t="s">
-        <v>271</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E77" s="2"/>
       <c r="F77" s="2" t="s">
-        <v>269</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="C78" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F78" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B79" s="2" t="s">
-        <v>274</v>
+        <v>205</v>
       </c>
       <c r="C79" s="6">
         <v>6</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2" t="s">
-        <v>272</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
+      <c r="J79" s="2"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B80" s="2" t="s">
-        <v>273</v>
+        <v>174</v>
       </c>
       <c r="C80" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>276</v>
+        <v>138</v>
       </c>
       <c r="E80" s="2"/>
-      <c r="F80" s="2" t="s">
-        <v>275</v>
+      <c r="F80" t="s">
+        <v>152</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
+      <c r="I80" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B81" t="s">
-        <v>202</v>
+      <c r="B81" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C81" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="E81" s="2"/>
-      <c r="F81" s="2" t="s">
-        <v>276</v>
+      <c r="F81" t="s">
+        <v>138</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>15</v>
-      </c>
+      <c r="A82" s="2"/>
+      <c r="B82" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" s="6">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A83" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="B83" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="C83" s="6">
+        <v>9</v>
+      </c>
       <c r="D83" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
+      <c r="F83" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
-      <c r="B84" t="s">
-        <v>146</v>
+      <c r="B84" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="C84" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="3">
-        <v>44774</v>
-      </c>
+      <c r="F84" t="s">
+        <v>155</v>
+      </c>
+      <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="C85" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G85" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="C86" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -2746,59 +2770,47 @@
       <c r="J86" s="2"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C87" s="6">
-        <v>3</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="2"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
+      <c r="A88" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="B88" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C88" s="6">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C88" s="6"/>
       <c r="D88" s="2" t="s">
-        <v>63</v>
+        <v>278</v>
       </c>
       <c r="E88" s="2"/>
-      <c r="F88" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2" t="s">
-        <v>232</v>
+      <c r="B89" t="s">
+        <v>273</v>
       </c>
       <c r="C89" s="6">
         <v>3</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -2806,19 +2818,18 @@
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2" t="s">
-        <v>221</v>
+      <c r="B90" t="s">
+        <v>85</v>
       </c>
       <c r="C90" s="6">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -2826,152 +2837,127 @@
       <c r="J90" s="2"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="2"/>
+      <c r="B91" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" s="6">
+        <v>6</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
+      <c r="F91" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" s="6"/>
+      <c r="B92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="6">
+        <v>9</v>
+      </c>
       <c r="D92" s="2" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
+      <c r="F92" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2" t="s">
-        <v>148</v>
+      <c r="B93" t="s">
+        <v>128</v>
       </c>
       <c r="C93" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G93" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="G93" s="2"/>
       <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2" t="s">
-        <v>150</v>
+      <c r="B94" t="s">
+        <v>32</v>
       </c>
       <c r="C94" s="6">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2" t="s">
-        <v>219</v>
+      <c r="B95" t="s">
+        <v>34</v>
       </c>
       <c r="C95" s="6">
         <v>6</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2" t="s">
-        <v>149</v>
+      <c r="B96" t="s">
+        <v>129</v>
       </c>
       <c r="C96" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C97" s="6">
-        <v>3</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
+      <c r="A97" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A98" s="2"/>
+      <c r="A98" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B98" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C98" s="6">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C98" s="6"/>
       <c r="D98" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="E98" s="2"/>
-      <c r="F98" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -2979,20 +2965,20 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
-      <c r="B99" s="2" t="s">
-        <v>222</v>
+      <c r="B99" t="s">
+        <v>143</v>
       </c>
       <c r="C99" s="6">
         <v>3</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="E99" s="2"/>
-      <c r="F99" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="3">
+        <v>44774</v>
+      </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
@@ -3000,19 +2986,19 @@
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="C100" s="6">
         <v>3</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="G100" s="7"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
@@ -3020,17 +3006,17 @@
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
-        <v>235</v>
+        <v>25</v>
       </c>
       <c r="C101" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>238</v>
+        <v>28</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
@@ -3040,17 +3026,17 @@
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="C102" s="6">
         <v>3</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -3060,17 +3046,17 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="C103" s="6">
         <v>3</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
@@ -3080,17 +3066,17 @@
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c r="C104" s="6">
         <v>3</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
@@ -3100,16 +3086,17 @@
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="C105" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
@@ -3117,40 +3104,32 @@
       <c r="J105" s="2"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C106" s="6">
-        <v>6</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="A106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="2"/>
       <c r="E106" s="2"/>
-      <c r="F106" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A107" s="2"/>
+      <c r="A107" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B107" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C107" s="6">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C107" s="6"/>
       <c r="D107" s="2" t="s">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="E107" s="2"/>
-      <c r="F107" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
@@ -3159,19 +3138,19 @@
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
       <c r="C108" s="6">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G108" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="G108" s="7"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
@@ -3179,17 +3158,17 @@
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C109" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
@@ -3197,265 +3176,279 @@
       <c r="J109" s="2"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A110" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="2"/>
+      <c r="A110" s="2"/>
+      <c r="B110" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C110" s="6">
+        <v>6</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
+      <c r="F110" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A111" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C111" s="6"/>
+        <v>146</v>
+      </c>
+      <c r="C111" s="6">
+        <v>9</v>
+      </c>
       <c r="D111" s="2" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E111" s="2"/>
+      <c r="F111" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
-      <c r="I111" t="s">
-        <v>25</v>
-      </c>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c r="C112" s="6">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
-      <c r="I112" t="s">
-        <v>24</v>
-      </c>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
-        <v>9</v>
+        <v>214</v>
       </c>
       <c r="C113" s="6">
         <v>3</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
-      <c r="I113" t="s">
-        <v>17</v>
-      </c>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C114" s="6">
         <v>3</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
-      <c r="I114" t="s">
-        <v>17</v>
-      </c>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="C115" s="6">
         <v>3</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>226</v>
+        <v>37</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
-      <c r="I115" t="s">
-        <v>17</v>
-      </c>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C116" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>226</v>
+        <v>13</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
-      <c r="I116" t="s">
-        <v>17</v>
-      </c>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c r="C117" s="6">
         <v>3</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="C118" s="6">
         <v>3</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>229</v>
+        <v>83</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C119" s="6">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="C120" s="6">
         <v>3</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E120" s="2"/>
+        <v>79</v>
+      </c>
       <c r="F120" s="2" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
-      <c r="I120" t="s">
-        <v>17</v>
-      </c>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A121" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="2"/>
+      <c r="A121" s="2"/>
+      <c r="B121" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C121" s="6">
+        <v>6</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
+      <c r="F121" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>145</v>
-      </c>
+      <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C122" s="6"/>
+        <v>216</v>
+      </c>
+      <c r="C122" s="6">
+        <v>3</v>
+      </c>
       <c r="D122" s="2" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="E122" s="2"/>
+      <c r="F122" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
-      <c r="I122" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="I122" s="2"/>
       <c r="J122" s="2"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="2" t="s">
-        <v>111</v>
+        <v>232</v>
       </c>
       <c r="C123" s="6">
-        <v>9</v>
+        <v>-6</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F123" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
@@ -3464,17 +3457,17 @@
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="C124" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
@@ -3482,399 +3475,425 @@
       <c r="J124" s="2"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B125" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C125" s="6">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="A125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="2"/>
       <c r="E125" s="2"/>
-      <c r="F125" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
-      <c r="I125" t="s">
-        <v>17</v>
-      </c>
+      <c r="I125" s="2"/>
       <c r="J125" s="2"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="B126" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C126" s="6">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C126" s="6"/>
       <c r="D126" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F126" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="E126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
-      <c r="J126" s="2"/>
+      <c r="I126" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A127" s="2"/>
       <c r="B127" s="2" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="C127" s="6">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E127" s="2"/>
-      <c r="F127" t="s">
-        <v>155</v>
+      <c r="F127" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
-      <c r="I127" s="2" t="s">
+      <c r="I127" t="s">
         <v>23</v>
       </c>
-      <c r="J127" s="2"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A128" s="2"/>
       <c r="B128" s="2" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="C128" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E128" s="2"/>
-      <c r="F128" t="s">
-        <v>140</v>
+      <c r="F128" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
+      <c r="I128" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
-        <v>112</v>
+        <v>219</v>
       </c>
       <c r="C129" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F129" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
+      <c r="I129" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A130" s="2"/>
       <c r="B130" s="2" t="s">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="C130" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
+      <c r="I130" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A131" s="2"/>
       <c r="B131" s="2" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="C131" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E131" s="2"/>
-      <c r="F131" t="s">
-        <v>158</v>
+      <c r="F131" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
+      <c r="I131" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="C132" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="C133" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A134" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="2"/>
+      <c r="A134" s="2"/>
+      <c r="B134" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C134" s="6">
+        <v>-6</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
+      <c r="F134" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>15</v>
-      </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="2"/>
+      <c r="A135" s="2"/>
+      <c r="B135" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C135" s="6">
+        <v>3</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
+      <c r="F135" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
+      <c r="I135" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>68</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="A136" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>66</v>
+      </c>
+      <c r="B137" t="s">
         <v>0</v>
       </c>
-      <c r="D136" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B137" t="s">
-        <v>181</v>
-      </c>
-      <c r="C137" s="5">
-        <v>9</v>
-      </c>
       <c r="D137" t="s">
-        <v>94</v>
-      </c>
-      <c r="E137" t="s">
-        <v>13</v>
-      </c>
-      <c r="F137" s="2"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
+        <v>178</v>
+      </c>
+      <c r="C138" s="5">
+        <v>9</v>
+      </c>
+      <c r="D138" t="s">
         <v>92</v>
       </c>
-      <c r="C138" s="5">
-        <v>3</v>
-      </c>
-      <c r="D138" t="s">
-        <v>95</v>
-      </c>
-      <c r="F138" t="s">
-        <v>94</v>
-      </c>
+      <c r="E138" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C139" s="5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D139" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F139" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="C140" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F140" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="C141" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D141" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F141" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C142" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D142" t="s">
-        <v>98</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>230</v>
+        <v>94</v>
+      </c>
+      <c r="F142" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="C143" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>99</v>
-      </c>
-      <c r="F143" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="C144" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D144" t="s">
-        <v>100</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="F144" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="C145" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D145" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="C146" s="5">
         <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>102</v>
-      </c>
-      <c r="E146" t="s">
-        <v>158</v>
-      </c>
-      <c r="F146" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="C147" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>183</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>231</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E147" t="s">
+        <v>155</v>
+      </c>
+      <c r="F147" s="2"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="C148" s="5">
+        <v>6</v>
+      </c>
+      <c r="D148" t="s">
+        <v>180</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B149" t="s">
+        <v>64</v>
+      </c>
+      <c r="C149" s="5">
         <v>9</v>
       </c>
-      <c r="D148" t="s">
-        <v>103</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A149" s="2" t="s">
+      <c r="D149" t="s">
+        <v>101</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B149" s="2"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nova/projects/equilibrium/work_plan.xlsx
+++ b/nova/projects/equilibrium/work_plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1209,23 +1209,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1300,7 +1300,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1344,7 +1344,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1366,7 +1366,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1388,7 +1388,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1410,7 +1410,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1432,7 +1432,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1454,7 +1454,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1476,7 +1476,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1520,7 +1520,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1542,7 +1542,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1564,7 +1564,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1586,7 +1586,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1608,7 +1608,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1630,7 +1630,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1652,7 +1652,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1740,12 +1740,12 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>203</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>186</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>240</v>
@@ -1804,7 +1804,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>191</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>207</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>187</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>192</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>211</v>
       </c>
@@ -1874,12 +1874,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1895,7 +1895,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>239</v>
@@ -1915,7 +1915,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
         <v>241</v>
@@ -1935,7 +1935,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
         <v>249</v>
@@ -1955,7 +1955,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
         <v>261</v>
@@ -1975,7 +1975,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>247</v>
@@ -1995,7 +1995,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>185</v>
       </c>
@@ -2012,7 +2012,7 @@
       <c r="G41" s="7"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>196</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>255</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>256</v>
       </c>
@@ -2066,7 +2066,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>258</v>
       </c>
@@ -2083,7 +2083,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>275</v>
       </c>
@@ -2100,7 +2100,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>212</v>
       </c>
@@ -2117,7 +2117,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>251</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>263</v>
       </c>
@@ -2151,7 +2151,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>197</v>
       </c>
@@ -2168,7 +2168,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>54</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>253</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>254</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>130</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>259</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>131</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>264</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>266</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
         <v>238</v>
@@ -2325,7 +2325,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
         <v>270</v>
       </c>
@@ -2342,7 +2342,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
         <v>269</v>
       </c>
@@ -2359,7 +2359,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>198</v>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -2387,7 +2387,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>276</v>
       </c>
@@ -2403,7 +2403,7 @@
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>208</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>209</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>210</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
         <v>103</v>
@@ -2465,7 +2465,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
         <v>104</v>
@@ -2487,7 +2487,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
         <v>119</v>
@@ -2507,7 +2507,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
         <v>127</v>
@@ -2527,7 +2527,7 @@
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -2538,7 +2538,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>277</v>
       </c>
@@ -2554,7 +2554,7 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
         <v>109</v>
@@ -2574,7 +2574,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
         <v>213</v>
@@ -2594,7 +2594,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B78" s="2" t="s">
         <v>204</v>
       </c>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
         <v>205</v>
       </c>
@@ -2633,7 +2633,7 @@
       <c r="H79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
         <v>174</v>
       </c>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
         <v>141</v>
       </c>
@@ -2673,7 +2673,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
         <v>110</v>
@@ -2693,7 +2693,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B83" s="2" t="s">
         <v>122</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
         <v>139</v>
       </c>
@@ -2731,7 +2731,7 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
         <v>175</v>
       </c>
@@ -2750,7 +2750,7 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
         <v>142</v>
       </c>
@@ -2769,7 +2769,7 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -2780,7 +2780,7 @@
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>274</v>
       </c>
@@ -2798,7 +2798,7 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>273</v>
       </c>
@@ -2817,7 +2817,7 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>85</v>
       </c>
@@ -2836,7 +2836,7 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>35</v>
       </c>
@@ -2855,7 +2855,7 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>33</v>
       </c>
@@ -2872,7 +2872,7 @@
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>128</v>
       </c>
@@ -2889,7 +2889,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>32</v>
       </c>
@@ -2906,7 +2906,7 @@
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>34</v>
       </c>
@@ -2923,7 +2923,7 @@
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>129</v>
       </c>
@@ -2940,12 +2940,12 @@
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>20</v>
       </c>
@@ -2963,7 +2963,7 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" t="s">
         <v>143</v>
@@ -2983,7 +2983,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
         <v>58</v>
@@ -3003,7 +3003,7 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
         <v>25</v>
@@ -3023,7 +3023,7 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
         <v>75</v>
@@ -3043,7 +3043,7 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
         <v>59</v>
@@ -3063,7 +3063,7 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
         <v>228</v>
@@ -3083,7 +3083,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
         <v>217</v>
@@ -3103,7 +3103,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>15</v>
       </c>
@@ -3117,7 +3117,7 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>3</v>
       </c>
@@ -3135,7 +3135,7 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
         <v>145</v>
@@ -3155,7 +3155,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
         <v>147</v>
@@ -3175,7 +3175,7 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
         <v>215</v>
@@ -3195,7 +3195,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
         <v>146</v>
@@ -3215,7 +3215,7 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
         <v>112</v>
@@ -3235,7 +3235,7 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
         <v>214</v>
@@ -3255,7 +3255,7 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
         <v>218</v>
@@ -3275,7 +3275,7 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
         <v>148</v>
@@ -3295,7 +3295,7 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
         <v>231</v>
@@ -3315,7 +3315,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
         <v>123</v>
@@ -3335,7 +3335,7 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
         <v>114</v>
@@ -3355,7 +3355,7 @@
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
         <v>124</v>
@@ -3375,7 +3375,7 @@
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
         <v>116</v>
@@ -3394,7 +3394,7 @@
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
         <v>115</v>
@@ -3414,7 +3414,7 @@
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
         <v>216</v>
@@ -3434,7 +3434,7 @@
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2" t="s">
         <v>232</v>
@@ -3454,7 +3454,7 @@
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
         <v>125</v>
@@ -3474,7 +3474,7 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>15</v>
       </c>
@@ -3488,7 +3488,7 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>55</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2" t="s">
         <v>223</v>
@@ -3527,7 +3527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2" t="s">
         <v>9</v>
@@ -3548,7 +3548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
         <v>219</v>
@@ -3569,7 +3569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2" t="s">
         <v>221</v>
@@ -3590,7 +3590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2" t="s">
         <v>220</v>
@@ -3611,7 +3611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
         <v>229</v>
@@ -3629,7 +3629,7 @@
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
         <v>224</v>
@@ -3647,7 +3647,7 @@
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
         <v>132</v>
@@ -3665,7 +3665,7 @@
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2" t="s">
         <v>230</v>
@@ -3686,7 +3686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>15</v>
       </c>
@@ -3700,7 +3700,7 @@
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>66</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>178</v>
       </c>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>90</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>63</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>126</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>67</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>69</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>117</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>65</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>118</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>68</v>
       </c>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>179</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>64</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>15</v>
       </c>

--- a/nova/projects/equilibrium/work_plan.xlsx
+++ b/nova/projects/equilibrium/work_plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="289">
   <si>
     <t>task</t>
   </si>
@@ -1232,25 +1232,25 @@
   <dimension ref="A1:K152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" customWidth="1"/>
+    <col min="4" max="4" width="8.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1309,7 +1309,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1331,7 +1331,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1353,7 +1353,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1375,7 +1375,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1419,7 +1419,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1441,7 +1441,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1463,7 +1463,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1485,7 +1485,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1507,7 +1507,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1551,7 +1551,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1617,7 +1617,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1639,7 +1639,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1705,7 +1705,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1727,7 +1727,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1749,7 +1749,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1771,12 +1771,12 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -1790,12 +1790,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>171</v>
       </c>
       <c r="D26" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>158</v>
@@ -1804,12 +1804,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>155</v>
       </c>
       <c r="D27" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
         <v>157</v>
@@ -1818,7 +1818,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>192</v>
@@ -1839,7 +1839,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>160</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>172</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>156</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>161</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>175</v>
       </c>
@@ -1909,12 +1909,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1930,7 +1930,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>191</v>
@@ -1951,7 +1951,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
         <v>275</v>
@@ -1972,7 +1972,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
         <v>199</v>
@@ -1993,7 +1993,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
         <v>209</v>
@@ -2014,7 +2014,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>276</v>
@@ -2035,7 +2035,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>154</v>
       </c>
@@ -2052,7 +2052,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>164</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>204</v>
       </c>
@@ -2089,7 +2089,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>205</v>
       </c>
@@ -2106,7 +2106,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>277</v>
       </c>
@@ -2123,7 +2123,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>219</v>
       </c>
@@ -2140,7 +2140,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>176</v>
       </c>
@@ -2157,7 +2157,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
         <v>278</v>
       </c>
@@ -2175,7 +2175,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B49" s="2" t="s">
         <v>211</v>
       </c>
@@ -2193,7 +2193,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>165</v>
       </c>
@@ -2210,7 +2210,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -2225,7 +2225,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>48</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>202</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>203</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>107</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>207</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>108</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>212</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>279</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
         <v>190</v>
@@ -2369,7 +2369,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B62" s="2" t="s">
         <v>280</v>
       </c>
@@ -2387,7 +2387,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B63" s="2" t="s">
         <v>216</v>
       </c>
@@ -2405,7 +2405,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>166</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>236</v>
       </c>
@@ -2436,14 +2436,14 @@
         <v>235</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>15</v>
       </c>
       <c r="E66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>221</v>
       </c>
@@ -2459,7 +2459,7 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
         <v>177</v>
@@ -2480,7 +2480,7 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
         <v>225</v>
@@ -2501,7 +2501,7 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
         <v>281</v>
@@ -2522,7 +2522,7 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B71" s="2" t="s">
         <v>282</v>
       </c>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B72" s="2" t="s">
         <v>227</v>
       </c>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B73" s="2" t="s">
         <v>283</v>
       </c>
@@ -2586,7 +2586,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B74" s="2" t="s">
         <v>284</v>
       </c>
@@ -2606,7 +2606,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
         <v>285</v>
@@ -2627,7 +2627,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B76" s="2" t="s">
         <v>232</v>
       </c>
@@ -2647,7 +2647,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B77" s="2" t="s">
         <v>116</v>
       </c>
@@ -2666,7 +2666,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B78" s="2" t="s">
         <v>286</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B79" s="2" t="s">
         <v>287</v>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -2717,7 +2717,7 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>20</v>
       </c>
@@ -2738,7 +2738,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" t="s">
         <v>118</v>
@@ -2758,7 +2758,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
         <v>51</v>
@@ -2779,7 +2779,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
         <v>25</v>
@@ -2800,7 +2800,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
         <v>64</v>
@@ -2821,7 +2821,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
         <v>52</v>
@@ -2842,7 +2842,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
         <v>186</v>
@@ -2863,8 +2863,10 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="2"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B88" s="2" t="s">
         <v>180</v>
       </c>
@@ -2884,7 +2886,7 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>15</v>
       </c>
@@ -2899,7 +2901,7 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>3</v>
       </c>
@@ -2918,7 +2920,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="2" t="s">
         <v>120</v>
@@ -2939,7 +2941,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>173</v>
       </c>
@@ -2953,7 +2955,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
         <v>244</v>
@@ -2974,7 +2976,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
         <v>179</v>
@@ -2995,7 +2997,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
         <v>121</v>
@@ -3016,7 +3018,7 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
         <v>245</v>
@@ -3037,7 +3039,7 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
         <v>178</v>
@@ -3058,7 +3060,7 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
         <v>181</v>
@@ -3079,7 +3081,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
         <v>122</v>
@@ -3100,7 +3102,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
         <v>103</v>
@@ -3121,7 +3123,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
         <v>97</v>
@@ -3141,7 +3143,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
         <v>96</v>
@@ -3162,7 +3164,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
         <v>249</v>
@@ -3183,7 +3185,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
         <v>95</v>
@@ -3204,7 +3206,7 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
         <v>104</v>
@@ -3225,7 +3227,7 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>15</v>
       </c>
@@ -3240,7 +3242,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>49</v>
       </c>
@@ -3259,7 +3261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
         <v>183</v>
@@ -3281,7 +3283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
         <v>9</v>
@@ -3303,7 +3305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
         <v>248</v>
@@ -3325,7 +3327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
         <v>247</v>
@@ -3347,7 +3349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
         <v>246</v>
@@ -3369,7 +3371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
         <v>273</v>
@@ -3388,7 +3390,7 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
         <v>184</v>
@@ -3407,7 +3409,7 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
         <v>109</v>
@@ -3426,7 +3428,7 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
         <v>250</v>
@@ -3445,7 +3447,7 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
         <v>251</v>
@@ -3464,7 +3466,7 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
         <v>274</v>
@@ -3485,7 +3487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>15</v>
       </c>
@@ -3500,7 +3502,7 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>220</v>
       </c>
@@ -3519,7 +3521,7 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
         <v>90</v>
@@ -3540,7 +3542,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>254</v>
       </c>
@@ -3554,7 +3556,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>174</v>
       </c>
@@ -3568,7 +3570,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
         <v>91</v>
@@ -3589,7 +3591,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
         <v>100</v>
@@ -3610,7 +3612,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
         <v>106</v>
@@ -3631,7 +3633,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>15</v>
       </c>
@@ -3642,7 +3644,7 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>242</v>
       </c>
@@ -3661,7 +3663,7 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>261</v>
       </c>
@@ -3680,7 +3682,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>262</v>
       </c>
@@ -3699,7 +3701,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>257</v>
       </c>
@@ -3716,7 +3718,7 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>288</v>
       </c>
@@ -3733,7 +3735,7 @@
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>266</v>
       </c>
@@ -3750,7 +3752,7 @@
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>258</v>
       </c>
@@ -3767,7 +3769,7 @@
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>259</v>
       </c>
@@ -3784,7 +3786,7 @@
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>268</v>
       </c>
@@ -3801,7 +3803,7 @@
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>270</v>
       </c>
@@ -3818,12 +3820,12 @@
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>59</v>
       </c>
@@ -3837,7 +3839,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>149</v>
       </c>
@@ -3851,7 +3853,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>77</v>
       </c>
@@ -3865,7 +3867,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>56</v>
       </c>
@@ -3879,7 +3881,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>105</v>
       </c>
@@ -3893,7 +3895,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>60</v>
       </c>
@@ -3907,7 +3909,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>62</v>
       </c>
@@ -3921,7 +3923,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>98</v>
       </c>
@@ -3935,7 +3937,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>58</v>
       </c>
@@ -3949,7 +3951,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>99</v>
       </c>
@@ -3963,7 +3965,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>61</v>
       </c>
@@ -3977,7 +3979,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>150</v>
       </c>
@@ -3991,7 +3993,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>57</v>
       </c>
@@ -4005,7 +4007,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>15</v>
       </c>

--- a/nova/projects/equilibrium/work_plan.xlsx
+++ b/nova/projects/equilibrium/work_plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="290">
   <si>
     <t>task</t>
   </si>
@@ -65,9 +65,6 @@
     <t>non-linear reconstruction</t>
   </si>
   <si>
-    <t>FP</t>
-  </si>
-  <si>
     <t>phase</t>
   </si>
   <si>
@@ -227,15 +224,9 @@
     <t>ms-mag-only</t>
   </si>
   <si>
-    <t>wm-disrupt-low</t>
-  </si>
-  <si>
     <t>wm-shield</t>
   </si>
   <si>
-    <t>wm-disrupt-half</t>
-  </si>
-  <si>
     <t>wm-shield-3d</t>
   </si>
   <si>
@@ -335,12 +326,6 @@
     <t>nlr-refactor</t>
   </si>
   <si>
-    <t>tune model to fit disruption behaviour (low current)</t>
-  </si>
-  <si>
-    <t>tune model to fit disruption behaviour (half current)</t>
-  </si>
-  <si>
     <t>baseline low-n stability metrics available</t>
   </si>
   <si>
@@ -530,9 +515,6 @@
     <t>lin-strain-nova</t>
   </si>
   <si>
-    <t>ms-lin-strain-nova</t>
-  </si>
-  <si>
     <t>ms-nova-trans</t>
   </si>
   <si>
@@ -545,18 +527,12 @@
     <t>in-house free-boundary equilibrium solver available</t>
   </si>
   <si>
-    <t>tune 2D wall model using 3D disruption simulations (Maxwell / Ansys)</t>
-  </si>
-  <si>
     <t>transient in-house free-boundary equilibrium solver available</t>
   </si>
   <si>
     <t>3D in-house free-boundary equilibrium solver available</t>
   </si>
   <si>
-    <t xml:space="preserve">separation of plasma and vessel current in advance of kinetic measurements </t>
-  </si>
-  <si>
     <t>magnetics-only diagnostics available</t>
   </si>
   <si>
@@ -569,9 +545,6 @@
     <t xml:space="preserve">tune TBM geometry from field measurements </t>
   </si>
   <si>
-    <t>measure open-loop vessel response (TF, PF, CS, VS3)</t>
-  </si>
-  <si>
     <t>PF-map3d</t>
   </si>
   <si>
@@ -632,9 +605,6 @@
     <t>lr-nova-pfpo1</t>
   </si>
   <si>
-    <t>develop non-linear parametrizations (flux functions - include rotation)</t>
-  </si>
-  <si>
     <t>refactor non-linear search for low-latency regression (ML model)</t>
   </si>
   <si>
@@ -776,9 +746,6 @@
     <t xml:space="preserve">develop 3D commissioning waveforms </t>
   </si>
   <si>
-    <t>build 3D ELM coil field maps + check transient response</t>
-  </si>
-  <si>
     <t>develop fast coupled VV-ELM coil transfer functions</t>
   </si>
   <si>
@@ -842,12 +809,6 @@
     <t>pekm-3d-pfpo1</t>
   </si>
   <si>
-    <t>fm-bay,sta-automatic,FP</t>
-  </si>
-  <si>
-    <t>tune 3D field maps from vacuum field measurements</t>
-  </si>
-  <si>
     <t>tune 3D ELM coil field maps from vacuum field measurements</t>
   </si>
   <si>
@@ -891,6 +852,48 @@
   </si>
   <si>
     <t>Kalman filter data assimilation available (synthetic analysis pipeline)</t>
+  </si>
+  <si>
+    <t>FP+EO</t>
+  </si>
+  <si>
+    <t>tune model to fit CS ramp</t>
+  </si>
+  <si>
+    <t>measure open-loop vessel response (PF, CS)</t>
+  </si>
+  <si>
+    <t>wm-CS-ramp</t>
+  </si>
+  <si>
+    <t>build 3D ELM coil field maps + check predictions for transient response</t>
+  </si>
+  <si>
+    <t>tune 3D field maps from CC vacuum field measurements</t>
+  </si>
+  <si>
+    <t>nl-pfpo1-support</t>
+  </si>
+  <si>
+    <t>nl-pfpo3-support</t>
+  </si>
+  <si>
+    <t>tune 2D wall model using 3D vessel CS ramp and disruption simulations</t>
+  </si>
+  <si>
+    <t>test eddy current and power supply models</t>
+  </si>
+  <si>
+    <t>test-nova-eddy</t>
+  </si>
+  <si>
+    <t>develop non-linear parametrizations (extend flux functions - include rotation &amp; fast ions)</t>
+  </si>
+  <si>
+    <t>apply causal reconstruction workflow in support of PFPO-2</t>
+  </si>
+  <si>
+    <t>pekm-3d-pfpo2</t>
   </si>
 </sst>
 </file>
@@ -1229,11 +1232,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K152"/>
+  <dimension ref="A1:K154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1258,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
@@ -1267,10 +1270,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -1279,29 +1282,29 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <f>4*12+3</f>
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="1"/>
@@ -1311,19 +1314,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D3">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>276</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
@@ -1333,16 +1336,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>276</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
@@ -1355,20 +1358,20 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D5">
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>276</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1377,20 +1380,20 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1399,20 +1402,20 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1421,20 +1424,20 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D8">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1443,20 +1446,20 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D9">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1465,20 +1468,20 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1487,20 +1490,20 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D11">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1509,20 +1512,20 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D12">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1531,20 +1534,20 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1553,20 +1556,20 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D14">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1575,20 +1578,20 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1597,20 +1600,20 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D16">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1619,20 +1622,20 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1641,20 +1644,20 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D18">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1663,20 +1666,20 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1685,20 +1688,20 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D20">
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1707,20 +1710,20 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1729,20 +1732,20 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1751,20 +1754,20 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1773,65 +1776,65 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D26" s="5">
         <v>6</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F26" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D27" s="5">
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="6">
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1841,77 +1844,77 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D29" s="5">
         <v>3</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G29" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D30" s="5">
         <v>0</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D31" s="5">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D32" s="5">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D33" s="5">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G33" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -1923,7 +1926,7 @@
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1933,17 +1936,17 @@
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="6">
         <v>0</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1954,18 +1957,18 @@
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="6">
         <v>6</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1975,18 +1978,18 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="6">
         <v>3</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -1996,18 +1999,18 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="6">
         <v>3</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -2017,18 +2020,18 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="6">
         <v>0</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -2037,464 +2040,454 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D41" s="6">
         <v>3</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D42" s="6">
         <v>6</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D43" s="6">
         <v>0</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D44" s="6">
         <v>6</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D45" s="6">
         <v>3</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D46" s="6">
         <v>6</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B47" t="s">
-        <v>176</v>
-      </c>
+      <c r="B47" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
-        <v>278</v>
+        <v>201</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B49" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C49" s="2"/>
+      <c r="B49" t="s">
+        <v>160</v>
+      </c>
       <c r="D49" s="6">
         <v>3</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>210</v>
+        <v>91</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>165</v>
-      </c>
-      <c r="D50" s="6">
-        <v>3</v>
+        <v>202</v>
+      </c>
+      <c r="D50" s="5">
+        <v>6</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F50" s="2"/>
+        <v>282</v>
+      </c>
       <c r="G50" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+        <v>221</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
+      <c r="B51" t="s">
+        <v>226</v>
+      </c>
+      <c r="D51" s="5">
+        <v>6</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>12</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>0</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B53" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="5">
-        <v>3</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
       <c r="D54" s="5">
         <v>3</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>41</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>203</v>
+        <v>287</v>
       </c>
       <c r="D55" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="D56" s="5">
         <v>6</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="D57" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="D58" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
-        <v>212</v>
+        <v>103</v>
       </c>
       <c r="D59" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>213</v>
+        <v>90</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>231</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>279</v>
+        <v>202</v>
       </c>
       <c r="D60" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>213</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="6">
-        <v>0</v>
+      <c r="B61" t="s">
+        <v>266</v>
+      </c>
+      <c r="D61" s="5">
+        <v>3</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2" t="s">
-        <v>215</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B63" s="2" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B64" t="s">
-        <v>166</v>
-      </c>
+      <c r="B64" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>236</v>
-      </c>
-      <c r="D65" s="5">
-        <v>15</v>
+        <v>161</v>
+      </c>
+      <c r="D65" s="6">
+        <v>6</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>237</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>235</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="G66" s="2"/>
+      <c r="B66" t="s">
+        <v>226</v>
+      </c>
+      <c r="D66" s="5">
+        <v>9</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>221</v>
-      </c>
-      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>211</v>
+      </c>
+      <c r="B68" t="s">
         <v>0</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="6">
-        <v>0</v>
-      </c>
+      <c r="D68" s="6"/>
       <c r="E68" s="2" t="s">
-        <v>66</v>
+        <v>213</v>
       </c>
       <c r="F68" s="2"/>
-      <c r="G68" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>228</v>
+        <v>65</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -2504,18 +2497,18 @@
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>228</v>
+        <v>118</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -2523,83 +2516,84 @@
       <c r="K70" s="2"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
-      <c r="J71" t="s">
-        <v>17</v>
-      </c>
+      <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B72" s="2" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="F72" s="2"/>
-      <c r="G72" t="s">
-        <v>126</v>
+      <c r="G72" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
-      <c r="J72" s="2" t="s">
-        <v>22</v>
+      <c r="J72" t="s">
+        <v>16</v>
       </c>
       <c r="K72" s="2"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B73" s="2" t="s">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="F73" s="2"/>
-      <c r="G73" s="2" t="s">
-        <v>115</v>
+      <c r="G73" t="s">
+        <v>121</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
+      <c r="J73" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="K73" s="2"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B74" s="2" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="6">
         <v>3</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -2607,20 +2601,19 @@
       <c r="K74" s="2"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="6">
         <v>3</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>50</v>
+        <v>221</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -2628,19 +2621,20 @@
       <c r="K75" s="2"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="6">
         <v>3</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>233</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -2649,17 +2643,18 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B77" s="2" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>130</v>
+        <v>223</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -2668,18 +2663,17 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B78" s="2" t="s">
-        <v>286</v>
+        <v>111</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -2688,18 +2682,18 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B79" s="2" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="6">
         <v>3</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -2707,74 +2701,73 @@
       <c r="K79" s="2"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="2"/>
+      <c r="B80" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="6">
+        <v>3</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
+      <c r="G80" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>241</v>
+      <c r="A81" t="s">
+        <v>14</v>
       </c>
       <c r="D81" s="6"/>
-      <c r="E81" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
-      <c r="B82" t="s">
-        <v>118</v>
-      </c>
-      <c r="D82" s="6">
-        <v>3</v>
-      </c>
+      <c r="A82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D82" s="6"/>
       <c r="E82" s="2" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="3">
-        <v>44774</v>
-      </c>
+      <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
-      <c r="B83" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83" s="2"/>
+      <c r="B83" t="s">
+        <v>113</v>
+      </c>
       <c r="D83" s="6">
         <v>3</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="F83" s="2"/>
-      <c r="G83" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H83" s="7"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="3">
+        <v>44774</v>
+      </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
@@ -2782,20 +2775,20 @@
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H84" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="H84" s="7"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -2803,18 +2796,18 @@
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -2824,18 +2817,18 @@
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="6">
         <v>3</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -2845,18 +2838,18 @@
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
-        <v>186</v>
+        <v>51</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="6">
         <v>3</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -2864,22 +2857,20 @@
       <c r="K87" s="2"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A88" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2" t="s">
-        <v>69</v>
+        <v>279</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -2887,14 +2878,20 @@
       <c r="K88" s="2"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A89" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B89" s="2"/>
+      <c r="A89" s="2"/>
+      <c r="B89" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="C89" s="2"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
+      <c r="D89" s="6">
+        <v>9</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -2903,16 +2900,12 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -2921,76 +2914,74 @@
       <c r="K90" s="2"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
+      <c r="A91" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B91" s="2" t="s">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="6">
-        <v>3</v>
-      </c>
+      <c r="D91" s="6"/>
       <c r="E91" s="2" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F91" s="2"/>
-      <c r="G91" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H91" s="7"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B92" t="s">
-        <v>173</v>
-      </c>
-      <c r="D92" s="5">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="6">
         <v>3</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>255</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F92" s="2"/>
       <c r="G92" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H92" s="7"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2" t="s">
+      <c r="B93" t="s">
+        <v>284</v>
+      </c>
+      <c r="D93" s="5">
+        <v>3</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="6">
-        <v>3</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F93" s="2"/>
       <c r="G93" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2" t="s">
-        <v>35</v>
+        <v>244</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -3000,18 +2991,18 @@
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
@@ -3021,18 +3012,18 @@
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>245</v>
+        <v>116</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -3042,18 +3033,18 @@
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="6">
         <v>3</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -3063,18 +3054,18 @@
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="6">
         <v>3</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -3084,18 +3075,18 @@
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
-        <v>122</v>
+        <v>278</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="6">
         <v>3</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -3105,18 +3096,18 @@
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="6">
         <v>3</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -3126,17 +3117,18 @@
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
-        <v>97</v>
+        <v>277</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="6">
         <v>3</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="F101" s="2"/>
       <c r="G101" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -3146,18 +3138,17 @@
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F102" s="2"/>
+        <v>66</v>
+      </c>
       <c r="G102" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
@@ -3167,18 +3158,18 @@
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
-        <v>249</v>
+        <v>93</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
@@ -3188,18 +3179,18 @@
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
-        <v>95</v>
+        <v>239</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="6">
         <v>3</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -3209,7 +3200,7 @@
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="6">
@@ -3220,7 +3211,7 @@
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -3229,7 +3220,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3244,7 +3235,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>0</v>
@@ -3258,29 +3249,29 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="6">
         <v>0</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
@@ -3290,32 +3281,32 @@
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2" t="s">
@@ -3324,87 +3315,87 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="6">
         <v>6</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="6">
         <v>3</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2" t="s">
-        <v>111</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="6">
         <v>3</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -3412,37 +3403,37 @@
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="6">
         <v>0</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2" t="s">
-        <v>148</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
@@ -3450,18 +3441,18 @@
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
@@ -3469,27 +3460,27 @@
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="6">
         <v>3</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G118" t="s">
-        <v>125</v>
+        <v>107</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3504,17 +3495,17 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B120" t="s">
         <v>0</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -3524,18 +3515,18 @@
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="6">
         <v>6</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -3544,68 +3535,62 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D122" s="5">
         <v>6</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D123" s="5">
         <v>0</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="6">
-        <v>6</v>
+      <c r="B124" t="s">
+        <v>285</v>
+      </c>
+      <c r="D124" s="5">
+        <v>3</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F124" s="2"/>
-      <c r="G124" t="s">
-        <v>170</v>
-      </c>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
-      <c r="K124" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G124" s="2"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F125" s="2"/>
-      <c r="G125" s="2" t="s">
-        <v>46</v>
+      <c r="G125" t="s">
+        <v>164</v>
       </c>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
@@ -3615,18 +3600,18 @@
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -3634,49 +3619,51 @@
       <c r="K126" s="2"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" s="6"/>
-      <c r="E127" s="2"/>
+      <c r="A127" s="2"/>
+      <c r="B127" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" s="6">
+        <v>0</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
+      <c r="G127" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A128" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C128" s="2"/>
+      <c r="A128" t="s">
+        <v>14</v>
+      </c>
       <c r="D128" s="6"/>
-      <c r="E128" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B129" t="s">
-        <v>261</v>
-      </c>
-      <c r="D129" s="6">
-        <v>7</v>
-      </c>
+      <c r="A129" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="6"/>
       <c r="E129" s="2" t="s">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="F129" s="2"/>
-      <c r="G129" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
@@ -3684,17 +3671,17 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D130" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2" t="s">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -3703,324 +3690,360 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D131" s="6">
         <v>9</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2" t="s">
-        <v>265</v>
+        <v>163</v>
       </c>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="D132" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2" t="s">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D133" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>267</v>
+        <v>72</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D134" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F134" s="2"/>
-      <c r="G134" t="s">
-        <v>269</v>
+      <c r="G134" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D135" s="6">
         <v>3</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c r="F135" s="2"/>
-      <c r="G135" s="2" t="s">
-        <v>260</v>
+      <c r="G135" t="s">
+        <v>258</v>
       </c>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="D136" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2" t="s">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D137" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>271</v>
+        <v>73</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>15</v>
-      </c>
+      <c r="B138" t="s">
+        <v>259</v>
+      </c>
+      <c r="D138" s="6">
+        <v>6</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>59</v>
-      </c>
       <c r="B139" t="s">
+        <v>288</v>
+      </c>
+      <c r="D139" s="6">
+        <v>12</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+    </row>
+    <row r="140" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>58</v>
+      </c>
+      <c r="B141" t="s">
         <v>0</v>
       </c>
-      <c r="C139" t="s">
-        <v>243</v>
-      </c>
-      <c r="E139" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B140" t="s">
-        <v>149</v>
-      </c>
-      <c r="D140" s="5">
-        <v>9</v>
-      </c>
-      <c r="E140" t="s">
-        <v>79</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B141" t="s">
-        <v>77</v>
-      </c>
-      <c r="D141" s="5">
-        <v>3</v>
+      <c r="C141" t="s">
+        <v>233</v>
       </c>
       <c r="E141" t="s">
-        <v>80</v>
-      </c>
-      <c r="G141" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="D142" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E142" t="s">
-        <v>82</v>
-      </c>
-      <c r="G142" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="D143" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E143" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G143" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D144" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E144" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G144" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="D145" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>83</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>272</v>
+        <v>86</v>
+      </c>
+      <c r="G145" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D146" s="5">
         <v>4</v>
       </c>
       <c r="E146" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G146" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D147" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E147" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>84</v>
+        <v>256</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D148" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E148" t="s">
-        <v>86</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>114</v>
+        <v>81</v>
+      </c>
+      <c r="G148" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D149" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E149" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>271</v>
+        <v>81</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="D150" s="5">
         <v>6</v>
       </c>
       <c r="E150" t="s">
-        <v>151</v>
-      </c>
-      <c r="G150" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D151" s="5">
         <v>9</v>
       </c>
       <c r="E151" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A152" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
-      <c r="K152" s="2"/>
+      <c r="B152" t="s">
+        <v>145</v>
+      </c>
+      <c r="D152" s="5">
+        <v>6</v>
+      </c>
+      <c r="E152" t="s">
+        <v>146</v>
+      </c>
+      <c r="G152" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B153" t="s">
+        <v>56</v>
+      </c>
+      <c r="D153" s="5">
+        <v>9</v>
+      </c>
+      <c r="E153" t="s">
+        <v>85</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A154" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nova/projects/equilibrium/work_plan.xlsx
+++ b/nova/projects/equilibrium/work_plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="292">
   <si>
     <t>task</t>
   </si>
@@ -452,9 +452,6 @@
     <t>integrated commissioning</t>
   </si>
   <si>
-    <t>tfmap-validate</t>
-  </si>
-  <si>
     <t>wm-wf-shield-3d</t>
   </si>
   <si>
@@ -869,9 +866,6 @@
     <t>build 3D ELM coil field maps + check predictions for transient response</t>
   </si>
   <si>
-    <t>tune 3D field maps from CC vacuum field measurements</t>
-  </si>
-  <si>
     <t>nl-pfpo1-support</t>
   </si>
   <si>
@@ -894,6 +888,18 @@
   </si>
   <si>
     <t>pekm-3d-pfpo2</t>
+  </si>
+  <si>
+    <t>tune 3D field maps from CC vacuum field measurements (full system)</t>
+  </si>
+  <si>
+    <t>tfmap-validate-pair</t>
+  </si>
+  <si>
+    <t>tfmap-validate-full</t>
+  </si>
+  <si>
+    <t>tune 3D field maps from CC vacuum field measurements (coil pairs only)</t>
   </si>
 </sst>
 </file>
@@ -1232,11 +1238,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K154"/>
+  <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1261,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
@@ -1326,7 +1332,7 @@
         <v>119</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
@@ -1345,7 +1351,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
@@ -1371,7 +1377,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1781,41 +1787,41 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D26" s="5">
         <v>6</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D27" s="5">
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -1824,14 +1830,14 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="6">
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>118</v>
@@ -1844,41 +1850,41 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D29" s="5">
         <v>3</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D30" s="5">
         <v>0</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D31" s="5">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>91</v>
@@ -1886,30 +1892,30 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="5">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" t="s">
         <v>156</v>
-      </c>
-      <c r="D32" s="5">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
-        <v>158</v>
-      </c>
-      <c r="G32" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D33" s="5">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -1936,14 +1942,14 @@
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="6">
         <v>0</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>120</v>
@@ -1957,18 +1963,18 @@
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="6">
         <v>6</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1978,18 +1984,18 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="6">
         <v>3</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -1999,18 +2005,18 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="6">
         <v>3</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -2020,18 +2026,18 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="6">
         <v>0</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -2040,7 +2046,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D41" s="6">
         <v>3</v>
@@ -2050,14 +2056,14 @@
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D42" s="6">
         <v>6</v>
@@ -2077,13 +2083,13 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D43" s="6">
         <v>0</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
@@ -2094,13 +2100,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D44" s="6">
         <v>6</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
@@ -2111,7 +2117,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D45" s="6">
         <v>3</v>
@@ -2121,20 +2127,20 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D46" s="6">
         <v>6</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
@@ -2145,43 +2151,43 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B47" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="6">
         <v>6</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="6">
         <v>3</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D49" s="6">
         <v>3</v>
@@ -2191,37 +2197,37 @@
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D50" s="5">
         <v>6</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D51" s="5">
         <v>6</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
@@ -2261,12 +2267,12 @@
         <v>40</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D55" s="5">
         <v>3</v>
@@ -2280,7 +2286,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D56" s="5">
         <v>6</v>
@@ -2308,7 +2314,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D58" s="5">
         <v>3</v>
@@ -2336,43 +2342,43 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D60" s="5">
         <v>6</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D61" s="5">
         <v>3</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="6">
         <v>0</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>123</v>
@@ -2385,43 +2391,43 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B63" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="6">
         <v>6</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B64" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="6">
         <v>3</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D65" s="6">
         <v>6</v>
@@ -2431,23 +2437,23 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D66" s="5">
         <v>9</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
@@ -2459,14 +2465,14 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -2476,7 +2482,7 @@
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="6">
@@ -2497,14 +2503,14 @@
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="6">
         <v>3</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
@@ -2518,18 +2524,18 @@
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="6">
         <v>2</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -2538,18 +2544,18 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B72" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="6">
         <v>9</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -2560,7 +2566,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B73" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="6">
@@ -2582,14 +2588,14 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B74" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="6">
         <v>3</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
@@ -2602,18 +2608,18 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B75" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="6">
         <v>3</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -2623,7 +2629,7 @@
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="6">
@@ -2643,14 +2649,14 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B77" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="6">
         <v>3</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
@@ -2682,14 +2688,14 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B79" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="6">
         <v>3</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2" t="s">
@@ -2702,18 +2708,18 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B80" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="6">
         <v>3</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -2739,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="2" t="s">
@@ -2859,7 +2865,7 @@
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="6">
@@ -2870,7 +2876,7 @@
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -2880,7 +2886,7 @@
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="6">
@@ -2955,13 +2961,13 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D93" s="5">
         <v>3</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>33</v>
@@ -2970,7 +2976,7 @@
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="6">
@@ -2981,7 +2987,7 @@
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -2991,7 +2997,7 @@
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="6">
@@ -3033,7 +3039,7 @@
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="6">
@@ -3054,7 +3060,7 @@
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="6">
@@ -3075,7 +3081,7 @@
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="6">
@@ -3086,7 +3092,7 @@
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -3117,14 +3123,14 @@
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="6">
         <v>3</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2" t="s">
@@ -3162,7 +3168,7 @@
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>67</v>
@@ -3179,14 +3185,14 @@
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="6">
         <v>3</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2" t="s">
@@ -3211,7 +3217,7 @@
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -3255,7 +3261,7 @@
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="6">
@@ -3299,7 +3305,7 @@
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="6">
@@ -3321,14 +3327,14 @@
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="6">
         <v>9</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2" t="s">
@@ -3343,7 +3349,7 @@
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="6">
@@ -3354,7 +3360,7 @@
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -3365,14 +3371,14 @@
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="6">
         <v>3</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>142</v>
+        <v>289</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>120</v>
@@ -3384,18 +3390,18 @@
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="6">
         <v>3</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2" t="s">
-        <v>142</v>
+        <v>289</v>
       </c>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -3403,17 +3409,17 @@
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
-        <v>104</v>
+        <v>288</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E115" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -3422,37 +3428,37 @@
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
-        <v>280</v>
+        <v>104</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="F116" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>241</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2" t="s">
-        <v>242</v>
+        <v>105</v>
       </c>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
@@ -3460,158 +3466,156 @@
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="F118" s="2"/>
       <c r="G118" s="2" t="s">
-        <v>69</v>
+        <v>241</v>
       </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
-      <c r="J118" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A119" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B119" s="2"/>
+      <c r="A119" s="2"/>
+      <c r="B119" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="C119" s="2"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
+      <c r="D119" s="6">
+        <v>3</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
+      <c r="J119" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>210</v>
-      </c>
-      <c r="B120" t="s">
-        <v>0</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>228</v>
-      </c>
+      <c r="A120" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
       <c r="D120" s="6"/>
-      <c r="E120" s="2" t="s">
-        <v>214</v>
-      </c>
+      <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="6">
-        <v>6</v>
-      </c>
+      <c r="A121" t="s">
+        <v>209</v>
+      </c>
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D121" s="6"/>
       <c r="E121" s="2" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="F121" s="2"/>
-      <c r="G121" t="s">
-        <v>152</v>
-      </c>
+      <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B122" t="s">
-        <v>243</v>
-      </c>
-      <c r="D122" s="5">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="6">
         <v>6</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>245</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F122" s="2"/>
+      <c r="G122" t="s">
+        <v>151</v>
+      </c>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="D123" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>154</v>
+        <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
-        <v>285</v>
+        <v>166</v>
       </c>
       <c r="D124" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F124" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B125" t="s">
+        <v>283</v>
+      </c>
+      <c r="D125" s="5">
+        <v>3</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G124" s="2"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="6">
-        <v>6</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F125" s="2"/>
-      <c r="G125" t="s">
-        <v>164</v>
-      </c>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
-      <c r="K125" s="2"/>
+      <c r="G125" s="2"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F126" s="2"/>
-      <c r="G126" s="2" t="s">
-        <v>45</v>
+      <c r="G126" t="s">
+        <v>163</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -3621,18 +3625,18 @@
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -3640,49 +3644,51 @@
       <c r="K127" s="2"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" s="6"/>
-      <c r="E128" s="2"/>
+      <c r="A128" s="2"/>
+      <c r="B128" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" s="6">
+        <v>0</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
+      <c r="G128" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A129" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C129" s="2"/>
+      <c r="A129" t="s">
+        <v>14</v>
+      </c>
       <c r="D129" s="6"/>
-      <c r="E129" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B130" t="s">
-        <v>250</v>
-      </c>
-      <c r="D130" s="6">
-        <v>7</v>
-      </c>
+      <c r="A130" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="6"/>
       <c r="E130" s="2" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="F130" s="2"/>
-      <c r="G130" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
@@ -3690,17 +3696,17 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
+        <v>249</v>
+      </c>
+      <c r="D131" s="6">
+        <v>7</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="D131" s="6">
-        <v>9</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
@@ -3709,341 +3715,360 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D132" s="6">
         <v>9</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>71</v>
+        <v>252</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="D133" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2" t="s">
-        <v>71</v>
+        <v>253</v>
       </c>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="D134" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>256</v>
+        <v>72</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2" t="s">
-        <v>286</v>
+        <v>71</v>
       </c>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D135" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F135" s="2"/>
-      <c r="G135" t="s">
-        <v>258</v>
+      <c r="G135" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
+        <v>246</v>
+      </c>
+      <c r="D136" s="6">
+        <v>3</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D136" s="6">
-        <v>3</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F136" s="2"/>
-      <c r="G136" s="2" t="s">
-        <v>249</v>
+      <c r="G136" t="s">
+        <v>257</v>
       </c>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D137" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2" t="s">
-        <v>38</v>
+        <v>248</v>
       </c>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D138" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>260</v>
+        <v>73</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="D139" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="2" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B140" t="s">
+        <v>286</v>
+      </c>
+      <c r="D140" s="6">
+        <v>12</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+    </row>
+    <row r="141" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>58</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>0</v>
       </c>
-      <c r="C141" t="s">
-        <v>233</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="C142" t="s">
+        <v>232</v>
+      </c>
+      <c r="E142" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B142" t="s">
-        <v>144</v>
-      </c>
-      <c r="D142" s="5">
-        <v>9</v>
-      </c>
-      <c r="E142" t="s">
-        <v>76</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="D143" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E143" t="s">
-        <v>77</v>
-      </c>
-      <c r="G143" t="s">
         <v>76</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="D144" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E144" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G144" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D145" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E145" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G145" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="D146" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G146" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D147" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E147" t="s">
-        <v>80</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>256</v>
+        <v>78</v>
+      </c>
+      <c r="G147" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D148" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E148" t="s">
-        <v>81</v>
-      </c>
-      <c r="G148" t="s">
         <v>80</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D149" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E149" t="s">
-        <v>82</v>
-      </c>
-      <c r="G149" s="2" t="s">
         <v>81</v>
+      </c>
+      <c r="G149" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="D150" s="5">
         <v>6</v>
       </c>
       <c r="E150" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D151" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E151" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>260</v>
+        <v>109</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="D152" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E152" t="s">
-        <v>146</v>
-      </c>
-      <c r="G152" t="s">
         <v>84</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
+        <v>144</v>
+      </c>
+      <c r="D153" s="5">
+        <v>6</v>
+      </c>
+      <c r="E153" t="s">
+        <v>145</v>
+      </c>
+      <c r="G153" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B154" t="s">
         <v>56</v>
       </c>
-      <c r="D153" s="5">
+      <c r="D154" s="5">
         <v>9</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E154" t="s">
         <v>85</v>
       </c>
-      <c r="G153" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A154" s="2" t="s">
+      <c r="G154" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A155" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
-      <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
